--- a/output/raw_data/美债收益率.xlsx
+++ b/output/raw_data/美债收益率.xlsx
@@ -19,16 +19,19 @@
     <t>2Y</t>
   </si>
   <si>
-    <t>5Y</t>
+    <t>10Y</t>
   </si>
   <si>
-    <t>10Y</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -81,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -380,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C435"/>
+  <dimension ref="A1:C465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,2295 +394,2340 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>45292</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B3">
         <v>0.0433</v>
-      </c>
-      <c r="B3">
-        <v>0.0393</v>
       </c>
       <c r="C3">
         <v>0.0395</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B4">
         <v>0.0433</v>
-      </c>
-      <c r="B4">
-        <v>0.039</v>
       </c>
       <c r="C4">
         <v>0.0391</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B5">
         <v>0.0438</v>
-      </c>
-      <c r="B5">
-        <v>0.0397</v>
       </c>
       <c r="C5">
         <v>0.0399</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B6">
         <v>0.044</v>
-      </c>
-      <c r="B6">
-        <v>0.04019999999999999</v>
       </c>
       <c r="C6">
         <v>0.0405</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="A7" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B7">
         <v>0.0436</v>
-      </c>
-      <c r="B7">
-        <v>0.0397</v>
       </c>
       <c r="C7">
         <v>0.0401</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B8">
         <v>0.0436</v>
-      </c>
-      <c r="B8">
-        <v>0.0397</v>
       </c>
       <c r="C8">
         <v>0.04019999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="A9" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B9">
         <v>0.0437</v>
-      </c>
-      <c r="B9">
-        <v>0.0399</v>
       </c>
       <c r="C9">
         <v>0.0404</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B10">
         <v>0.0426</v>
-      </c>
-      <c r="B10">
-        <v>0.039</v>
       </c>
       <c r="C10">
         <v>0.0398</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B11">
         <v>0.0414</v>
-      </c>
-      <c r="B11">
-        <v>0.0384</v>
       </c>
       <c r="C11">
         <v>0.0396</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>45306</v>
+      </c>
+    </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B13">
         <v>0.04219999999999999</v>
-      </c>
-      <c r="B13">
-        <v>0.0395</v>
       </c>
       <c r="C13">
         <v>0.0407</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B14">
         <v>0.0434</v>
-      </c>
-      <c r="B14">
-        <v>0.04019999999999999</v>
       </c>
       <c r="C14">
         <v>0.04099999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B15">
         <v>0.0434</v>
-      </c>
-      <c r="B15">
-        <v>0.0404</v>
       </c>
       <c r="C15">
         <v>0.0414</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B16">
         <v>0.04389999999999999</v>
-      </c>
-      <c r="B16">
-        <v>0.0408</v>
       </c>
       <c r="C16">
         <v>0.0415</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="A17" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B17">
         <v>0.0437</v>
-      </c>
-      <c r="B17">
-        <v>0.0403</v>
       </c>
       <c r="C17">
         <v>0.0411</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="A18" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B18">
         <v>0.0431</v>
-      </c>
-      <c r="B18">
-        <v>0.0406</v>
       </c>
       <c r="C18">
         <v>0.0414</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="A19" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B19">
         <v>0.0434</v>
-      </c>
-      <c r="B19">
-        <v>0.0406</v>
       </c>
       <c r="C19">
         <v>0.0418</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B20">
         <v>0.0428</v>
-      </c>
-      <c r="B20">
-        <v>0.0401</v>
       </c>
       <c r="C20">
         <v>0.0414</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B21">
         <v>0.0434</v>
-      </c>
-      <c r="B21">
-        <v>0.0404</v>
       </c>
       <c r="C21">
         <v>0.0415</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="A22" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B22">
         <v>0.0429</v>
-      </c>
-      <c r="B22">
-        <v>0.0397</v>
       </c>
       <c r="C22">
         <v>0.0408</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="A23" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B23">
         <v>0.0436</v>
-      </c>
-      <c r="B23">
-        <v>0.04</v>
       </c>
       <c r="C23">
         <v>0.0406</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="A24" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B24">
         <v>0.04269999999999999</v>
-      </c>
-      <c r="B24">
-        <v>0.0391</v>
       </c>
       <c r="C24">
         <v>0.0399</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="A25" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B25">
         <v>0.042</v>
-      </c>
-      <c r="B25">
-        <v>0.038</v>
       </c>
       <c r="C25">
         <v>0.0387</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="A26" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B26">
         <v>0.0436</v>
-      </c>
-      <c r="B26">
-        <v>0.0399</v>
       </c>
       <c r="C26">
         <v>0.0403</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="A27" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B27">
         <v>0.0446</v>
-      </c>
-      <c r="B27">
-        <v>0.0413</v>
       </c>
       <c r="C27">
         <v>0.0417</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="A28" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B28">
         <v>0.04389999999999999</v>
-      </c>
-      <c r="B28">
-        <v>0.0403</v>
       </c>
       <c r="C28">
         <v>0.0409</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="A29" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B29">
         <v>0.0441</v>
-      </c>
-      <c r="B29">
-        <v>0.0406</v>
       </c>
       <c r="C29">
         <v>0.0409</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="A30" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B30">
         <v>0.0446</v>
-      </c>
-      <c r="B30">
-        <v>0.0412</v>
       </c>
       <c r="C30">
         <v>0.0415</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="A31" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B31">
         <v>0.04480000000000001</v>
-      </c>
-      <c r="B31">
-        <v>0.0414</v>
       </c>
       <c r="C31">
         <v>0.0417</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
+      <c r="A32" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B32">
         <v>0.0446</v>
-      </c>
-      <c r="B32">
-        <v>0.0413</v>
       </c>
       <c r="C32">
         <v>0.0417</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="A33" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B33">
         <v>0.0464</v>
-      </c>
-      <c r="B33">
-        <v>0.0431</v>
       </c>
       <c r="C33">
         <v>0.0431</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
+      <c r="A34" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B34">
         <v>0.04559999999999999</v>
-      </c>
-      <c r="B34">
-        <v>0.0425</v>
       </c>
       <c r="C34">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
+      <c r="A35" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B35">
         <v>0.04559999999999999</v>
-      </c>
-      <c r="B35">
-        <v>0.04219999999999999</v>
       </c>
       <c r="C35">
         <v>0.0424</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
+      <c r="A36" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B36">
         <v>0.0464</v>
-      </c>
-      <c r="B36">
-        <v>0.0429</v>
       </c>
       <c r="C36">
         <v>0.043</v>
       </c>
     </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45341</v>
+      </c>
+    </row>
     <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="A38" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B38">
         <v>0.0459</v>
-      </c>
-      <c r="B38">
-        <v>0.0425</v>
       </c>
       <c r="C38">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="A39" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B39">
         <v>0.0464</v>
-      </c>
-      <c r="B39">
-        <v>0.043</v>
       </c>
       <c r="C39">
         <v>0.0432</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="A40" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B40">
         <v>0.0469</v>
-      </c>
-      <c r="B40">
-        <v>0.0433</v>
       </c>
       <c r="C40">
         <v>0.0433</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="A41" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B41">
         <v>0.0467</v>
-      </c>
-      <c r="B41">
-        <v>0.0428</v>
       </c>
       <c r="C41">
         <v>0.0426</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="A42" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B42">
         <v>0.0469</v>
-      </c>
-      <c r="B42">
-        <v>0.0429</v>
       </c>
       <c r="C42">
         <v>0.0428</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="A43" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B43">
         <v>0.047</v>
-      </c>
-      <c r="B43">
-        <v>0.0432</v>
       </c>
       <c r="C43">
         <v>0.0431</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="A44" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B44">
         <v>0.0464</v>
-      </c>
-      <c r="B44">
-        <v>0.0426</v>
       </c>
       <c r="C44">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
+      <c r="A45" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B45">
         <v>0.0464</v>
-      </c>
-      <c r="B45">
-        <v>0.0426</v>
       </c>
       <c r="C45">
         <v>0.0425</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
+      <c r="A46" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B46">
         <v>0.0454</v>
-      </c>
-      <c r="B46">
-        <v>0.0417</v>
       </c>
       <c r="C46">
         <v>0.04190000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
+      <c r="A47" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B47">
         <v>0.0461</v>
-      </c>
-      <c r="B47">
-        <v>0.0421</v>
       </c>
       <c r="C47">
         <v>0.04219999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="A48" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B48">
         <v>0.0454</v>
-      </c>
-      <c r="B48">
-        <v>0.0413</v>
       </c>
       <c r="C48">
         <v>0.0413</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
+      <c r="A49" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B49">
         <v>0.0455</v>
-      </c>
-      <c r="B49">
-        <v>0.0412</v>
       </c>
       <c r="C49">
         <v>0.0411</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
+      <c r="A50" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B50">
         <v>0.045</v>
-      </c>
-      <c r="B50">
-        <v>0.0407</v>
       </c>
       <c r="C50">
         <v>0.0409</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
+      <c r="A51" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B51">
         <v>0.04480000000000001</v>
-      </c>
-      <c r="B51">
-        <v>0.0406</v>
       </c>
       <c r="C51">
         <v>0.0409</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
+      <c r="A52" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B52">
         <v>0.0451</v>
-      </c>
-      <c r="B52">
-        <v>0.0408</v>
       </c>
       <c r="C52">
         <v>0.04099999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
+      <c r="A53" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B53">
         <v>0.0458</v>
-      </c>
-      <c r="B53">
-        <v>0.0415</v>
       </c>
       <c r="C53">
         <v>0.0416</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
+      <c r="A54" s="2">
+        <v>45364</v>
+      </c>
+      <c r="B54">
         <v>0.0461</v>
-      </c>
-      <c r="B54">
-        <v>0.04190000000000001</v>
       </c>
       <c r="C54">
         <v>0.04190000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55">
+      <c r="A55" s="2">
+        <v>45365</v>
+      </c>
+      <c r="B55">
         <v>0.04679999999999999</v>
-      </c>
-      <c r="B55">
-        <v>0.0429</v>
       </c>
       <c r="C55">
         <v>0.0429</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
+      <c r="A56" s="2">
+        <v>45366</v>
+      </c>
+      <c r="B56">
         <v>0.0472</v>
-      </c>
-      <c r="B56">
-        <v>0.0433</v>
       </c>
       <c r="C56">
         <v>0.0431</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
+      <c r="A57" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B57">
         <v>0.0473</v>
-      </c>
-      <c r="B57">
-        <v>0.0436</v>
       </c>
       <c r="C57">
         <v>0.0434</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58">
+      <c r="A58" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B58">
         <v>0.04679999999999999</v>
-      </c>
-      <c r="B58">
-        <v>0.0431</v>
       </c>
       <c r="C58">
         <v>0.043</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59">
+      <c r="A59" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B59">
         <v>0.0459</v>
-      </c>
-      <c r="B59">
-        <v>0.0425</v>
       </c>
       <c r="C59">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
+      <c r="A60" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B60">
         <v>0.0462</v>
-      </c>
-      <c r="B60">
-        <v>0.0426</v>
       </c>
       <c r="C60">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
+      <c r="A61" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B61">
         <v>0.0459</v>
-      </c>
-      <c r="B61">
-        <v>0.042</v>
       </c>
       <c r="C61">
         <v>0.04219999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
+      <c r="A62" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B62">
         <v>0.0454</v>
-      </c>
-      <c r="B62">
-        <v>0.0423</v>
       </c>
       <c r="C62">
         <v>0.0425</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
+      <c r="A63" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B63">
         <v>0.04559999999999999</v>
-      </c>
-      <c r="B63">
-        <v>0.04219999999999999</v>
       </c>
       <c r="C63">
         <v>0.0424</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
+      <c r="A64" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B64">
         <v>0.0454</v>
-      </c>
-      <c r="B64">
-        <v>0.0418</v>
       </c>
       <c r="C64">
         <v>0.042</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="A65" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B65">
         <v>0.0459</v>
-      </c>
-      <c r="B65">
-        <v>0.0421</v>
       </c>
       <c r="C65">
         <v>0.042</v>
       </c>
     </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45380</v>
+      </c>
+    </row>
     <row r="67" spans="1:3">
-      <c r="A67">
+      <c r="A67" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B67">
         <v>0.0472</v>
-      </c>
-      <c r="B67">
-        <v>0.0434</v>
       </c>
       <c r="C67">
         <v>0.0433</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
+      <c r="A68" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B68">
         <v>0.047</v>
-      </c>
-      <c r="B68">
-        <v>0.0435</v>
       </c>
       <c r="C68">
         <v>0.0436</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
+      <c r="A69" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B69">
         <v>0.04679999999999999</v>
-      </c>
-      <c r="B69">
-        <v>0.0434</v>
       </c>
       <c r="C69">
         <v>0.0436</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
+      <c r="A70" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B70">
         <v>0.04650000000000001</v>
-      </c>
-      <c r="B70">
-        <v>0.043</v>
       </c>
       <c r="C70">
         <v>0.0431</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71">
+      <c r="A71" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B71">
         <v>0.0473</v>
-      </c>
-      <c r="B71">
-        <v>0.0438</v>
       </c>
       <c r="C71">
         <v>0.04389999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="A72" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B72">
         <v>0.0478</v>
-      </c>
-      <c r="B72">
-        <v>0.0443</v>
       </c>
       <c r="C72">
         <v>0.0442</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="A73" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B73">
         <v>0.0474</v>
-      </c>
-      <c r="B73">
-        <v>0.0437</v>
       </c>
       <c r="C73">
         <v>0.0436</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="A74" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B74">
         <v>0.04969999999999999</v>
-      </c>
-      <c r="B74">
-        <v>0.0461</v>
       </c>
       <c r="C74">
         <v>0.0455</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75">
+      <c r="A75" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B75">
         <v>0.0493</v>
-      </c>
-      <c r="B75">
-        <v>0.0461</v>
       </c>
       <c r="C75">
         <v>0.04559999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
+      <c r="A76" s="2">
+        <v>45394</v>
+      </c>
+      <c r="B76">
         <v>0.0488</v>
-      </c>
-      <c r="B76">
-        <v>0.0454</v>
       </c>
       <c r="C76">
         <v>0.045</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="A77" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B77">
         <v>0.0493</v>
-      </c>
-      <c r="B77">
-        <v>0.04650000000000001</v>
       </c>
       <c r="C77">
         <v>0.0463</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78">
+      <c r="A78" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B78">
         <v>0.04969999999999999</v>
-      </c>
-      <c r="B78">
-        <v>0.0469</v>
       </c>
       <c r="C78">
         <v>0.0467</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
+      <c r="A79" s="2">
+        <v>45399</v>
+      </c>
+      <c r="B79">
         <v>0.0493</v>
-      </c>
-      <c r="B79">
-        <v>0.0462</v>
       </c>
       <c r="C79">
         <v>0.0459</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
+      <c r="A80" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B80">
         <v>0.0498</v>
-      </c>
-      <c r="B80">
-        <v>0.04679999999999999</v>
       </c>
       <c r="C80">
         <v>0.0464</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
+      <c r="A81" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B81">
         <v>0.04969999999999999</v>
-      </c>
-      <c r="B81">
-        <v>0.0466</v>
       </c>
       <c r="C81">
         <v>0.0462</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
+      <c r="A82" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B82">
         <v>0.04969999999999999</v>
-      </c>
-      <c r="B82">
-        <v>0.0466</v>
       </c>
       <c r="C82">
         <v>0.0462</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83">
+      <c r="A83" s="2">
+        <v>45405</v>
+      </c>
+      <c r="B83">
         <v>0.0486</v>
-      </c>
-      <c r="B83">
-        <v>0.0463</v>
       </c>
       <c r="C83">
         <v>0.0461</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
+      <c r="A84" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B84">
         <v>0.0489</v>
-      </c>
-      <c r="B84">
-        <v>0.0464</v>
       </c>
       <c r="C84">
         <v>0.04650000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
+      <c r="A85" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B85">
         <v>0.0496</v>
-      </c>
-      <c r="B85">
-        <v>0.047</v>
       </c>
       <c r="C85">
         <v>0.047</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
+      <c r="A86" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B86">
         <v>0.0496</v>
-      </c>
-      <c r="B86">
-        <v>0.04679999999999999</v>
       </c>
       <c r="C86">
         <v>0.0467</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87">
+      <c r="A87" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B87">
         <v>0.04969999999999999</v>
-      </c>
-      <c r="B87">
-        <v>0.04650000000000001</v>
       </c>
       <c r="C87">
         <v>0.0463</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88">
+      <c r="A88" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B88">
         <v>0.0504</v>
-      </c>
-      <c r="B88">
-        <v>0.0472</v>
       </c>
       <c r="C88">
         <v>0.0469</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89">
+      <c r="A89" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B89">
         <v>0.0496</v>
-      </c>
-      <c r="B89">
-        <v>0.0464</v>
       </c>
       <c r="C89">
         <v>0.0463</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
+      <c r="A90" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B90">
         <v>0.0487</v>
-      </c>
-      <c r="B90">
-        <v>0.0457</v>
       </c>
       <c r="C90">
         <v>0.0458</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
+      <c r="A91" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B91">
         <v>0.0481</v>
-      </c>
-      <c r="B91">
-        <v>0.04480000000000001</v>
       </c>
       <c r="C91">
         <v>0.045</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92">
+      <c r="A92" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B92">
         <v>0.0482</v>
-      </c>
-      <c r="B92">
-        <v>0.04480000000000001</v>
       </c>
       <c r="C92">
         <v>0.0449</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
+      <c r="A93" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B93">
         <v>0.0482</v>
-      </c>
-      <c r="B93">
-        <v>0.04480000000000001</v>
       </c>
       <c r="C93">
         <v>0.0447</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
+      <c r="A94" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B94">
         <v>0.0484</v>
-      </c>
-      <c r="B94">
-        <v>0.045</v>
       </c>
       <c r="C94">
         <v>0.04480000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
+      <c r="A95" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B95">
         <v>0.048</v>
-      </c>
-      <c r="B95">
-        <v>0.0447</v>
       </c>
       <c r="C95">
         <v>0.0445</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
+      <c r="A96" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B96">
         <v>0.0487</v>
-      </c>
-      <c r="B96">
-        <v>0.0452</v>
       </c>
       <c r="C96">
         <v>0.045</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
+      <c r="A97" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B97">
         <v>0.04849999999999999</v>
-      </c>
-      <c r="B97">
-        <v>0.045</v>
       </c>
       <c r="C97">
         <v>0.04480000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
+      <c r="A98" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B98">
         <v>0.0481</v>
-      </c>
-      <c r="B98">
-        <v>0.0446</v>
       </c>
       <c r="C98">
         <v>0.0445</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
+      <c r="A99" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B99">
         <v>0.0473</v>
-      </c>
-      <c r="B99">
-        <v>0.0435</v>
       </c>
       <c r="C99">
         <v>0.0436</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
+      <c r="A100" s="2">
+        <v>45428</v>
+      </c>
+      <c r="B100">
         <v>0.0478</v>
-      </c>
-      <c r="B100">
-        <v>0.044</v>
       </c>
       <c r="C100">
         <v>0.0438</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101">
+      <c r="A101" s="2">
+        <v>45429</v>
+      </c>
+      <c r="B101">
         <v>0.0483</v>
-      </c>
-      <c r="B101">
-        <v>0.0444</v>
       </c>
       <c r="C101">
         <v>0.0442</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102">
+      <c r="A102" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B102">
         <v>0.0482</v>
-      </c>
-      <c r="B102">
-        <v>0.0446</v>
       </c>
       <c r="C102">
         <v>0.0444</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103">
+      <c r="A103" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B103">
         <v>0.0482</v>
-      </c>
-      <c r="B103">
-        <v>0.0443</v>
       </c>
       <c r="C103">
         <v>0.0441</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104">
+      <c r="A104" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B104">
         <v>0.0486</v>
-      </c>
-      <c r="B104">
-        <v>0.0447</v>
       </c>
       <c r="C104">
         <v>0.0443</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105">
+      <c r="A105" s="2">
+        <v>45435</v>
+      </c>
+      <c r="B105">
         <v>0.0491</v>
-      </c>
-      <c r="B105">
-        <v>0.0452</v>
       </c>
       <c r="C105">
         <v>0.0447</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106">
+      <c r="A106" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B106">
         <v>0.0493</v>
-      </c>
-      <c r="B106">
-        <v>0.0453</v>
       </c>
       <c r="C106">
         <v>0.0446</v>
       </c>
     </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45439</v>
+      </c>
+    </row>
     <row r="108" spans="1:3">
-      <c r="A108">
+      <c r="A108" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B108">
         <v>0.04940000000000001</v>
-      </c>
-      <c r="B108">
-        <v>0.04559999999999999</v>
       </c>
       <c r="C108">
         <v>0.0454</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109">
+      <c r="A109" s="2">
+        <v>45441</v>
+      </c>
+      <c r="B109">
         <v>0.0496</v>
-      </c>
-      <c r="B109">
-        <v>0.0463</v>
       </c>
       <c r="C109">
         <v>0.0461</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110">
+      <c r="A110" s="2">
+        <v>45442</v>
+      </c>
+      <c r="B110">
         <v>0.0492</v>
-      </c>
-      <c r="B110">
-        <v>0.0457</v>
       </c>
       <c r="C110">
         <v>0.0455</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111">
+      <c r="A111" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B111">
         <v>0.0489</v>
-      </c>
-      <c r="B111">
-        <v>0.0452</v>
       </c>
       <c r="C111">
         <v>0.0451</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112">
+      <c r="A112" s="2">
+        <v>45446</v>
+      </c>
+      <c r="B112">
         <v>0.0482</v>
-      </c>
-      <c r="B112">
-        <v>0.0442</v>
       </c>
       <c r="C112">
         <v>0.0441</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113">
+      <c r="A113" s="2">
+        <v>45447</v>
+      </c>
+      <c r="B113">
         <v>0.04769999999999999</v>
-      </c>
-      <c r="B113">
-        <v>0.0435</v>
       </c>
       <c r="C113">
         <v>0.0433</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114">
+      <c r="A114" s="2">
+        <v>45448</v>
+      </c>
+      <c r="B114">
         <v>0.0472</v>
-      </c>
-      <c r="B114">
-        <v>0.0431</v>
       </c>
       <c r="C114">
         <v>0.0429</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115">
+      <c r="A115" s="2">
+        <v>45449</v>
+      </c>
+      <c r="B115">
         <v>0.0472</v>
-      </c>
-      <c r="B115">
-        <v>0.0429</v>
       </c>
       <c r="C115">
         <v>0.0428</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116">
+      <c r="A116" s="2">
+        <v>45450</v>
+      </c>
+      <c r="B116">
         <v>0.0487</v>
-      </c>
-      <c r="B116">
-        <v>0.0446</v>
       </c>
       <c r="C116">
         <v>0.0443</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117">
+      <c r="A117" s="2">
+        <v>45453</v>
+      </c>
+      <c r="B117">
         <v>0.0487</v>
-      </c>
-      <c r="B117">
-        <v>0.04480000000000001</v>
       </c>
       <c r="C117">
         <v>0.0447</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118">
+      <c r="A118" s="2">
+        <v>45454</v>
+      </c>
+      <c r="B118">
         <v>0.0481</v>
-      </c>
-      <c r="B118">
-        <v>0.0441</v>
       </c>
       <c r="C118">
         <v>0.04389999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119">
+      <c r="A119" s="2">
+        <v>45455</v>
+      </c>
+      <c r="B119">
         <v>0.0475</v>
-      </c>
-      <c r="B119">
-        <v>0.0432</v>
       </c>
       <c r="C119">
         <v>0.0431</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120">
+      <c r="A120" s="2">
+        <v>45456</v>
+      </c>
+      <c r="B120">
         <v>0.04679999999999999</v>
-      </c>
-      <c r="B120">
-        <v>0.0424</v>
       </c>
       <c r="C120">
         <v>0.0424</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121">
+      <c r="A121" s="2">
+        <v>45457</v>
+      </c>
+      <c r="B121">
         <v>0.0467</v>
-      </c>
-      <c r="B121">
-        <v>0.04219999999999999</v>
       </c>
       <c r="C121">
         <v>0.042</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122">
+      <c r="A122" s="2">
+        <v>45460</v>
+      </c>
+      <c r="B122">
         <v>0.0475</v>
-      </c>
-      <c r="B122">
-        <v>0.043</v>
       </c>
       <c r="C122">
         <v>0.0428</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123">
+      <c r="A123" s="2">
+        <v>45461</v>
+      </c>
+      <c r="B123">
         <v>0.0469</v>
-      </c>
-      <c r="B123">
-        <v>0.0424</v>
       </c>
       <c r="C123">
         <v>0.04219999999999999</v>
       </c>
     </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45462</v>
+      </c>
+    </row>
     <row r="125" spans="1:3">
-      <c r="A125">
+      <c r="A125" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B125">
         <v>0.047</v>
-      </c>
-      <c r="B125">
-        <v>0.0426</v>
       </c>
       <c r="C125">
         <v>0.0425</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126">
+      <c r="A126" s="2">
+        <v>45464</v>
+      </c>
+      <c r="B126">
         <v>0.047</v>
-      </c>
-      <c r="B126">
-        <v>0.0426</v>
       </c>
       <c r="C126">
         <v>0.0425</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127">
+      <c r="A127" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B127">
         <v>0.0471</v>
-      </c>
-      <c r="B127">
-        <v>0.04269999999999999</v>
       </c>
       <c r="C127">
         <v>0.0425</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128">
+      <c r="A128" s="2">
+        <v>45468</v>
+      </c>
+      <c r="B128">
         <v>0.04650000000000001</v>
-      </c>
-      <c r="B128">
-        <v>0.0425</v>
       </c>
       <c r="C128">
         <v>0.0423</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129">
+      <c r="A129" s="2">
+        <v>45469</v>
+      </c>
+      <c r="B129">
         <v>0.0471</v>
-      </c>
-      <c r="B129">
-        <v>0.0432</v>
       </c>
       <c r="C129">
         <v>0.0432</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130">
+      <c r="A130" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B130">
         <v>0.047</v>
-      </c>
-      <c r="B130">
-        <v>0.0429</v>
       </c>
       <c r="C130">
         <v>0.0429</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131">
+      <c r="A131" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B131">
         <v>0.0471</v>
-      </c>
-      <c r="B131">
-        <v>0.0433</v>
       </c>
       <c r="C131">
         <v>0.0436</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132">
+      <c r="A132" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B132">
         <v>0.04769999999999999</v>
-      </c>
-      <c r="B132">
-        <v>0.0444</v>
       </c>
       <c r="C132">
         <v>0.04480000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133">
+      <c r="A133" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B133">
         <v>0.0474</v>
-      </c>
-      <c r="B133">
-        <v>0.04389999999999999</v>
       </c>
       <c r="C133">
         <v>0.0443</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134">
+      <c r="A134" s="2">
+        <v>45476</v>
+      </c>
+      <c r="B134">
         <v>0.0471</v>
-      </c>
-      <c r="B134">
-        <v>0.0433</v>
       </c>
       <c r="C134">
         <v>0.0436</v>
       </c>
     </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45477</v>
+      </c>
+    </row>
     <row r="136" spans="1:3">
-      <c r="A136">
+      <c r="A136" s="2">
+        <v>45478</v>
+      </c>
+      <c r="B136">
         <v>0.046</v>
-      </c>
-      <c r="B136">
-        <v>0.04219999999999999</v>
       </c>
       <c r="C136">
         <v>0.0428</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137">
+      <c r="A137" s="2">
+        <v>45481</v>
+      </c>
+      <c r="B137">
         <v>0.0462</v>
-      </c>
-      <c r="B137">
-        <v>0.0423</v>
       </c>
       <c r="C137">
         <v>0.0428</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138">
+      <c r="A138" s="2">
+        <v>45482</v>
+      </c>
+      <c r="B138">
         <v>0.0462</v>
-      </c>
-      <c r="B138">
-        <v>0.0424</v>
       </c>
       <c r="C138">
         <v>0.043</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139">
+      <c r="A139" s="2">
+        <v>45483</v>
+      </c>
+      <c r="B139">
         <v>0.0462</v>
-      </c>
-      <c r="B139">
-        <v>0.0424</v>
       </c>
       <c r="C139">
         <v>0.0428</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140">
+      <c r="A140" s="2">
+        <v>45484</v>
+      </c>
+      <c r="B140">
         <v>0.045</v>
-      </c>
-      <c r="B140">
-        <v>0.0413</v>
       </c>
       <c r="C140">
         <v>0.042</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141">
+      <c r="A141" s="2">
+        <v>45485</v>
+      </c>
+      <c r="B141">
         <v>0.0445</v>
-      </c>
-      <c r="B141">
-        <v>0.04099999999999999</v>
       </c>
       <c r="C141">
         <v>0.0418</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142">
+      <c r="A142" s="2">
+        <v>45488</v>
+      </c>
+      <c r="B142">
         <v>0.0444</v>
-      </c>
-      <c r="B142">
-        <v>0.0413</v>
       </c>
       <c r="C142">
         <v>0.0423</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143">
+      <c r="A143" s="2">
+        <v>45489</v>
+      </c>
+      <c r="B143">
         <v>0.0443</v>
-      </c>
-      <c r="B143">
-        <v>0.0409</v>
       </c>
       <c r="C143">
         <v>0.0417</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144">
+      <c r="A144" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B144">
         <v>0.0442</v>
-      </c>
-      <c r="B144">
-        <v>0.0407</v>
       </c>
       <c r="C144">
         <v>0.0416</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145">
+      <c r="A145" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B145">
         <v>0.0446</v>
-      </c>
-      <c r="B145">
-        <v>0.0411</v>
       </c>
       <c r="C145">
         <v>0.042</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146">
+      <c r="A146" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B146">
         <v>0.0449</v>
-      </c>
-      <c r="B146">
-        <v>0.0416</v>
       </c>
       <c r="C146">
         <v>0.0425</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147">
+      <c r="A147" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B147">
         <v>0.045</v>
-      </c>
-      <c r="B147">
-        <v>0.0417</v>
       </c>
       <c r="C147">
         <v>0.0426</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148">
+      <c r="A148" s="2">
+        <v>45496</v>
+      </c>
+      <c r="B148">
         <v>0.044</v>
-      </c>
-      <c r="B148">
-        <v>0.0415</v>
       </c>
       <c r="C148">
         <v>0.0425</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149">
+      <c r="A149" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B149">
         <v>0.0437</v>
-      </c>
-      <c r="B149">
-        <v>0.0412</v>
       </c>
       <c r="C149">
         <v>0.0428</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150">
+      <c r="A150" s="2">
+        <v>45498</v>
+      </c>
+      <c r="B150">
         <v>0.0441</v>
-      </c>
-      <c r="B150">
-        <v>0.0413</v>
       </c>
       <c r="C150">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151">
+      <c r="A151" s="2">
+        <v>45499</v>
+      </c>
+      <c r="B151">
         <v>0.0436</v>
-      </c>
-      <c r="B151">
-        <v>0.0406</v>
       </c>
       <c r="C151">
         <v>0.042</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152">
+      <c r="A152" s="2">
+        <v>45502</v>
+      </c>
+      <c r="B152">
         <v>0.0436</v>
-      </c>
-      <c r="B152">
-        <v>0.0405</v>
       </c>
       <c r="C152">
         <v>0.0417</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153">
+      <c r="A153" s="2">
+        <v>45503</v>
+      </c>
+      <c r="B153">
         <v>0.0435</v>
-      </c>
-      <c r="B153">
-        <v>0.0403</v>
       </c>
       <c r="C153">
         <v>0.0415</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154">
+      <c r="A154" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B154">
         <v>0.0429</v>
-      </c>
-      <c r="B154">
-        <v>0.0397</v>
       </c>
       <c r="C154">
         <v>0.0409</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155">
+      <c r="A155" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B155">
         <v>0.0416</v>
-      </c>
-      <c r="B155">
-        <v>0.0384</v>
       </c>
       <c r="C155">
         <v>0.0399</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156">
+      <c r="A156" s="2">
+        <v>45506</v>
+      </c>
+      <c r="B156">
         <v>0.0388</v>
-      </c>
-      <c r="B156">
-        <v>0.0362</v>
       </c>
       <c r="C156">
         <v>0.038</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157">
+      <c r="A157" s="2">
+        <v>45509</v>
+      </c>
+      <c r="B157">
         <v>0.0389</v>
-      </c>
-      <c r="B157">
-        <v>0.0362</v>
       </c>
       <c r="C157">
         <v>0.0378</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158">
+      <c r="A158" s="2">
+        <v>45510</v>
+      </c>
+      <c r="B158">
         <v>0.0399</v>
-      </c>
-      <c r="B158">
-        <v>0.0373</v>
       </c>
       <c r="C158">
         <v>0.039</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159">
+      <c r="A159" s="2">
+        <v>45511</v>
+      </c>
+      <c r="B159">
         <v>0.04</v>
-      </c>
-      <c r="B159">
-        <v>0.0379</v>
       </c>
       <c r="C159">
         <v>0.0396</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160">
+      <c r="A160" s="2">
+        <v>45512</v>
+      </c>
+      <c r="B160">
         <v>0.0404</v>
-      </c>
-      <c r="B160">
-        <v>0.0383</v>
       </c>
       <c r="C160">
         <v>0.0399</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161">
+      <c r="A161" s="2">
+        <v>45513</v>
+      </c>
+      <c r="B161">
         <v>0.0405</v>
-      </c>
-      <c r="B161">
-        <v>0.038</v>
       </c>
       <c r="C161">
         <v>0.0394</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162">
+      <c r="A162" s="2">
+        <v>45516</v>
+      </c>
+      <c r="B162">
         <v>0.0401</v>
-      </c>
-      <c r="B162">
-        <v>0.0375</v>
       </c>
       <c r="C162">
         <v>0.039</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163">
+      <c r="A163" s="2">
+        <v>45517</v>
+      </c>
+      <c r="B163">
         <v>0.0393</v>
-      </c>
-      <c r="B163">
-        <v>0.0368</v>
       </c>
       <c r="C163">
         <v>0.0385</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164">
+      <c r="A164" s="2">
+        <v>45518</v>
+      </c>
+      <c r="B164">
         <v>0.0394</v>
-      </c>
-      <c r="B164">
-        <v>0.0367</v>
       </c>
       <c r="C164">
         <v>0.0383</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165">
+      <c r="A165" s="2">
+        <v>45519</v>
+      </c>
+      <c r="B165">
         <v>0.0408</v>
-      </c>
-      <c r="B165">
-        <v>0.0379</v>
       </c>
       <c r="C165">
         <v>0.0392</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166">
+      <c r="A166" s="2">
+        <v>45520</v>
+      </c>
+      <c r="B166">
         <v>0.0406</v>
-      </c>
-      <c r="B166">
-        <v>0.0377</v>
       </c>
       <c r="C166">
         <v>0.0389</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167">
+      <c r="A167" s="2">
+        <v>45523</v>
+      </c>
+      <c r="B167">
         <v>0.0406</v>
-      </c>
-      <c r="B167">
-        <v>0.0375</v>
       </c>
       <c r="C167">
         <v>0.0386</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168">
+      <c r="A168" s="2">
+        <v>45524</v>
+      </c>
+      <c r="B168">
         <v>0.0399</v>
-      </c>
-      <c r="B168">
-        <v>0.03700000000000001</v>
       </c>
       <c r="C168">
         <v>0.0382</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169">
+      <c r="A169" s="2">
+        <v>45525</v>
+      </c>
+      <c r="B169">
         <v>0.0392</v>
-      </c>
-      <c r="B169">
-        <v>0.0364</v>
       </c>
       <c r="C169">
         <v>0.0379</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170">
+      <c r="A170" s="2">
+        <v>45526</v>
+      </c>
+      <c r="B170">
         <v>0.0399</v>
-      </c>
-      <c r="B170">
-        <v>0.0372</v>
       </c>
       <c r="C170">
         <v>0.0386</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171">
+      <c r="A171" s="2">
+        <v>45527</v>
+      </c>
+      <c r="B171">
         <v>0.039</v>
-      </c>
-      <c r="B171">
-        <v>0.0365</v>
       </c>
       <c r="C171">
         <v>0.0381</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172">
+      <c r="A172" s="2">
+        <v>45530</v>
+      </c>
+      <c r="B172">
         <v>0.0391</v>
-      </c>
-      <c r="B172">
-        <v>0.0366</v>
       </c>
       <c r="C172">
         <v>0.0382</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173">
+      <c r="A173" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B173">
         <v>0.0383</v>
-      </c>
-      <c r="B173">
-        <v>0.0366</v>
       </c>
       <c r="C173">
         <v>0.0383</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174">
+      <c r="A174" s="2">
+        <v>45532</v>
+      </c>
+      <c r="B174">
         <v>0.0383</v>
-      </c>
-      <c r="B174">
-        <v>0.0363</v>
       </c>
       <c r="C174">
         <v>0.0384</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175">
+      <c r="A175" s="2">
+        <v>45533</v>
+      </c>
+      <c r="B175">
         <v>0.0387</v>
-      </c>
-      <c r="B175">
-        <v>0.0366</v>
       </c>
       <c r="C175">
         <v>0.0387</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176">
+      <c r="A176" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B176">
         <v>0.0391</v>
-      </c>
-      <c r="B176">
-        <v>0.0371</v>
       </c>
       <c r="C176">
         <v>0.0391</v>
       </c>
     </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45537</v>
+      </c>
+    </row>
     <row r="178" spans="1:3">
-      <c r="A178">
+      <c r="A178" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B178">
         <v>0.0388</v>
-      </c>
-      <c r="B178">
-        <v>0.0365</v>
       </c>
       <c r="C178">
         <v>0.0384</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179">
+      <c r="A179" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B179">
         <v>0.03759999999999999</v>
-      </c>
-      <c r="B179">
-        <v>0.0356</v>
       </c>
       <c r="C179">
         <v>0.0377</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180">
+      <c r="A180" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B180">
         <v>0.0375</v>
-      </c>
-      <c r="B180">
-        <v>0.0354</v>
       </c>
       <c r="C180">
         <v>0.0373</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181">
+      <c r="A181" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B181">
         <v>0.0366</v>
-      </c>
-      <c r="B181">
-        <v>0.035</v>
       </c>
       <c r="C181">
         <v>0.0372</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182">
+      <c r="A182" s="2">
+        <v>45544</v>
+      </c>
+      <c r="B182">
         <v>0.0368</v>
-      </c>
-      <c r="B182">
-        <v>0.0349</v>
       </c>
       <c r="C182">
         <v>0.03700000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183">
+      <c r="A183" s="2">
+        <v>45545</v>
+      </c>
+      <c r="B183">
         <v>0.0359</v>
-      </c>
-      <c r="B183">
-        <v>0.0343</v>
       </c>
       <c r="C183">
         <v>0.0365</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184">
+      <c r="A184" s="2">
+        <v>45546</v>
+      </c>
+      <c r="B184">
         <v>0.0362</v>
-      </c>
-      <c r="B184">
-        <v>0.0345</v>
       </c>
       <c r="C184">
         <v>0.0365</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185">
+      <c r="A185" s="2">
+        <v>45547</v>
+      </c>
+      <c r="B185">
         <v>0.0364</v>
-      </c>
-      <c r="B185">
-        <v>0.0347</v>
       </c>
       <c r="C185">
         <v>0.0368</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186">
+      <c r="A186" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B186">
         <v>0.0357</v>
-      </c>
-      <c r="B186">
-        <v>0.0343</v>
       </c>
       <c r="C186">
         <v>0.0366</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187">
+      <c r="A187" s="2">
+        <v>45551</v>
+      </c>
+      <c r="B187">
         <v>0.0356</v>
-      </c>
-      <c r="B187">
-        <v>0.0341</v>
       </c>
       <c r="C187">
         <v>0.0363</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188">
+      <c r="A188" s="2">
+        <v>45552</v>
+      </c>
+      <c r="B188">
         <v>0.0359</v>
-      </c>
-      <c r="B188">
-        <v>0.0344</v>
       </c>
       <c r="C188">
         <v>0.0365</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189">
+      <c r="A189" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B189">
         <v>0.0361</v>
-      </c>
-      <c r="B189">
-        <v>0.0347</v>
       </c>
       <c r="C189">
         <v>0.03700000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190">
+      <c r="A190" s="2">
+        <v>45554</v>
+      </c>
+      <c r="B190">
         <v>0.0359</v>
-      </c>
-      <c r="B190">
-        <v>0.0349</v>
       </c>
       <c r="C190">
         <v>0.0373</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191">
+      <c r="A191" s="2">
+        <v>45555</v>
+      </c>
+      <c r="B191">
         <v>0.0355</v>
-      </c>
-      <c r="B191">
-        <v>0.0348</v>
       </c>
       <c r="C191">
         <v>0.0373</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192">
+      <c r="A192" s="2">
+        <v>45558</v>
+      </c>
+      <c r="B192">
         <v>0.0357</v>
-      </c>
-      <c r="B192">
-        <v>0.0351</v>
       </c>
       <c r="C192">
         <v>0.0375</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193">
+      <c r="A193" s="2">
+        <v>45559</v>
+      </c>
+      <c r="B193">
         <v>0.0349</v>
-      </c>
-      <c r="B193">
-        <v>0.0347</v>
       </c>
       <c r="C193">
         <v>0.0374</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194">
+      <c r="A194" s="2">
+        <v>45560</v>
+      </c>
+      <c r="B194">
         <v>0.0353</v>
-      </c>
-      <c r="B194">
-        <v>0.0352</v>
       </c>
       <c r="C194">
         <v>0.0379</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195">
+      <c r="A195" s="2">
+        <v>45561</v>
+      </c>
+      <c r="B195">
         <v>0.036</v>
-      </c>
-      <c r="B195">
-        <v>0.0355</v>
       </c>
       <c r="C195">
         <v>0.0379</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196">
+      <c r="A196" s="2">
+        <v>45562</v>
+      </c>
+      <c r="B196">
         <v>0.0355</v>
-      </c>
-      <c r="B196">
-        <v>0.035</v>
       </c>
       <c r="C196">
         <v>0.0375</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197">
+      <c r="A197" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B197">
         <v>0.0366</v>
-      </c>
-      <c r="B197">
-        <v>0.0358</v>
       </c>
       <c r="C197">
         <v>0.0381</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198">
+      <c r="A198" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B198">
         <v>0.0361</v>
-      </c>
-      <c r="B198">
-        <v>0.0351</v>
       </c>
       <c r="C198">
         <v>0.0374</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199">
+      <c r="A199" s="2">
+        <v>45567</v>
+      </c>
+      <c r="B199">
         <v>0.0363</v>
-      </c>
-      <c r="B199">
-        <v>0.0355</v>
       </c>
       <c r="C199">
         <v>0.0379</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200">
+      <c r="A200" s="2">
+        <v>45568</v>
+      </c>
+      <c r="B200">
         <v>0.03700000000000001</v>
-      </c>
-      <c r="B200">
-        <v>0.0362</v>
       </c>
       <c r="C200">
         <v>0.0385</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201">
+      <c r="A201" s="2">
+        <v>45569</v>
+      </c>
+      <c r="B201">
         <v>0.0393</v>
-      </c>
-      <c r="B201">
-        <v>0.0381</v>
       </c>
       <c r="C201">
         <v>0.0398</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202">
+      <c r="A202" s="2">
+        <v>45572</v>
+      </c>
+      <c r="B202">
         <v>0.0399</v>
-      </c>
-      <c r="B202">
-        <v>0.0386</v>
       </c>
       <c r="C202">
         <v>0.0403</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203">
+      <c r="A203" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B203">
         <v>0.0398</v>
-      </c>
-      <c r="B203">
-        <v>0.0386</v>
       </c>
       <c r="C203">
         <v>0.0404</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204">
+      <c r="A204" s="2">
+        <v>45574</v>
+      </c>
+      <c r="B204">
         <v>0.0399</v>
-      </c>
-      <c r="B204">
-        <v>0.0391</v>
       </c>
       <c r="C204">
         <v>0.0406</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205">
+      <c r="A205" s="2">
+        <v>45575</v>
+      </c>
+      <c r="B205">
         <v>0.0398</v>
-      </c>
-      <c r="B205">
-        <v>0.0391</v>
       </c>
       <c r="C205">
         <v>0.0409</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206">
+      <c r="A206" s="2">
+        <v>45576</v>
+      </c>
+      <c r="B206">
         <v>0.0395</v>
-      </c>
-      <c r="B206">
-        <v>0.0388</v>
       </c>
       <c r="C206">
         <v>0.0408</v>
       </c>
     </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45579</v>
+      </c>
+    </row>
     <row r="208" spans="1:3">
-      <c r="A208">
+      <c r="A208" s="2">
+        <v>45580</v>
+      </c>
+      <c r="B208">
         <v>0.0395</v>
-      </c>
-      <c r="B208">
-        <v>0.0386</v>
       </c>
       <c r="C208">
         <v>0.0403</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209">
+      <c r="A209" s="2">
+        <v>45581</v>
+      </c>
+      <c r="B209">
         <v>0.0393</v>
-      </c>
-      <c r="B209">
-        <v>0.0384</v>
       </c>
       <c r="C209">
         <v>0.04019999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210">
+      <c r="A210" s="2">
+        <v>45582</v>
+      </c>
+      <c r="B210">
         <v>0.0396</v>
-      </c>
-      <c r="B210">
-        <v>0.039</v>
       </c>
       <c r="C210">
         <v>0.0409</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211">
+      <c r="A211" s="2">
+        <v>45583</v>
+      </c>
+      <c r="B211">
         <v>0.0395</v>
-      </c>
-      <c r="B211">
-        <v>0.0388</v>
       </c>
       <c r="C211">
         <v>0.0408</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212">
+      <c r="A212" s="2">
+        <v>45586</v>
+      </c>
+      <c r="B212">
         <v>0.04019999999999999</v>
-      </c>
-      <c r="B212">
-        <v>0.0398</v>
       </c>
       <c r="C212">
         <v>0.04190000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213">
+      <c r="A213" s="2">
+        <v>45587</v>
+      </c>
+      <c r="B213">
         <v>0.0403</v>
-      </c>
-      <c r="B213">
-        <v>0.04</v>
       </c>
       <c r="C213">
         <v>0.042</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214">
+      <c r="A214" s="2">
+        <v>45588</v>
+      </c>
+      <c r="B214">
         <v>0.0407</v>
-      </c>
-      <c r="B214">
-        <v>0.0405</v>
       </c>
       <c r="C214">
         <v>0.0424</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215">
+      <c r="A215" s="2">
+        <v>45589</v>
+      </c>
+      <c r="B215">
         <v>0.0407</v>
-      </c>
-      <c r="B215">
-        <v>0.0403</v>
       </c>
       <c r="C215">
         <v>0.0421</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216">
+      <c r="A216" s="2">
+        <v>45590</v>
+      </c>
+      <c r="B216">
         <v>0.0411</v>
-      </c>
-      <c r="B216">
-        <v>0.0407</v>
       </c>
       <c r="C216">
         <v>0.0425</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217">
+      <c r="A217" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B217">
         <v>0.0412</v>
-      </c>
-      <c r="B217">
-        <v>0.0411</v>
       </c>
       <c r="C217">
         <v>0.0428</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218">
-        <v>0.0411</v>
+      <c r="A218" s="2">
+        <v>45594</v>
       </c>
       <c r="B218">
         <v>0.0411</v>
@@ -2686,41 +2737,41 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219">
+      <c r="A219" s="2">
+        <v>45595</v>
+      </c>
+      <c r="B219">
         <v>0.0415</v>
-      </c>
-      <c r="B219">
-        <v>0.0414</v>
       </c>
       <c r="C219">
         <v>0.0429</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220">
+      <c r="A220" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B220">
         <v>0.0416</v>
-      </c>
-      <c r="B220">
-        <v>0.0415</v>
       </c>
       <c r="C220">
         <v>0.0428</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221">
+      <c r="A221" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B221">
         <v>0.0421</v>
-      </c>
-      <c r="B221">
-        <v>0.04219999999999999</v>
       </c>
       <c r="C221">
         <v>0.0437</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222">
-        <v>0.0417</v>
+      <c r="A222" s="2">
+        <v>45600</v>
       </c>
       <c r="B222">
         <v>0.0417</v>
@@ -2730,19 +2781,19 @@
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223">
+      <c r="A223" s="2">
+        <v>45601</v>
+      </c>
+      <c r="B223">
         <v>0.04190000000000001</v>
-      </c>
-      <c r="B223">
-        <v>0.0416</v>
       </c>
       <c r="C223">
         <v>0.0426</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224">
-        <v>0.04269999999999999</v>
+      <c r="A224" s="2">
+        <v>45602</v>
       </c>
       <c r="B224">
         <v>0.04269999999999999</v>
@@ -2752,261 +2803,271 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225">
+      <c r="A225" s="2">
+        <v>45603</v>
+      </c>
+      <c r="B225">
         <v>0.0421</v>
-      </c>
-      <c r="B225">
-        <v>0.0417</v>
       </c>
       <c r="C225">
         <v>0.0431</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226">
+      <c r="A226" s="2">
+        <v>45604</v>
+      </c>
+      <c r="B226">
         <v>0.0426</v>
-      </c>
-      <c r="B226">
-        <v>0.042</v>
       </c>
       <c r="C226">
         <v>0.043</v>
       </c>
     </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45607</v>
+      </c>
+    </row>
     <row r="228" spans="1:3">
-      <c r="A228">
+      <c r="A228" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B228">
         <v>0.0434</v>
-      </c>
-      <c r="B228">
-        <v>0.0432</v>
       </c>
       <c r="C228">
         <v>0.0443</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229">
+      <c r="A229" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B229">
         <v>0.04269999999999999</v>
-      </c>
-      <c r="B229">
-        <v>0.043</v>
       </c>
       <c r="C229">
         <v>0.0444</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230">
+      <c r="A230" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B230">
         <v>0.0434</v>
-      </c>
-      <c r="B230">
-        <v>0.0432</v>
       </c>
       <c r="C230">
         <v>0.0443</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231">
+      <c r="A231" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B231">
         <v>0.0431</v>
-      </c>
-      <c r="B231">
-        <v>0.043</v>
       </c>
       <c r="C231">
         <v>0.0443</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232">
+      <c r="A232" s="2">
+        <v>45614</v>
+      </c>
+      <c r="B232">
         <v>0.0429</v>
-      </c>
-      <c r="B232">
-        <v>0.0428</v>
       </c>
       <c r="C232">
         <v>0.0442</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233">
+      <c r="A233" s="2">
+        <v>45615</v>
+      </c>
+      <c r="B233">
         <v>0.04269999999999999</v>
-      </c>
-      <c r="B233">
-        <v>0.0425</v>
       </c>
       <c r="C233">
         <v>0.04389999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234">
+      <c r="A234" s="2">
+        <v>45616</v>
+      </c>
+      <c r="B234">
         <v>0.0431</v>
-      </c>
-      <c r="B234">
-        <v>0.0428</v>
       </c>
       <c r="C234">
         <v>0.0441</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235">
+      <c r="A235" s="2">
+        <v>45617</v>
+      </c>
+      <c r="B235">
         <v>0.0434</v>
-      </c>
-      <c r="B235">
-        <v>0.043</v>
       </c>
       <c r="C235">
         <v>0.0443</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236">
+      <c r="A236" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B236">
         <v>0.0437</v>
-      </c>
-      <c r="B236">
-        <v>0.043</v>
       </c>
       <c r="C236">
         <v>0.0441</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237">
+      <c r="A237" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B237">
         <v>0.0421</v>
-      </c>
-      <c r="B237">
-        <v>0.0417</v>
       </c>
       <c r="C237">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238">
+      <c r="A238" s="2">
+        <v>45622</v>
+      </c>
+      <c r="B238">
         <v>0.0421</v>
-      </c>
-      <c r="B238">
-        <v>0.0417</v>
       </c>
       <c r="C238">
         <v>0.043</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239">
+      <c r="A239" s="2">
+        <v>45623</v>
+      </c>
+      <c r="B239">
         <v>0.04190000000000001</v>
-      </c>
-      <c r="B239">
-        <v>0.0411</v>
       </c>
       <c r="C239">
         <v>0.0425</v>
       </c>
     </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45624</v>
+      </c>
+    </row>
     <row r="241" spans="1:3">
-      <c r="A241">
+      <c r="A241" s="2">
+        <v>45625</v>
+      </c>
+      <c r="B241">
         <v>0.0413</v>
-      </c>
-      <c r="B241">
-        <v>0.0405</v>
       </c>
       <c r="C241">
         <v>0.0418</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242">
+      <c r="A242" s="2">
+        <v>45628</v>
+      </c>
+      <c r="B242">
         <v>0.0417</v>
-      </c>
-      <c r="B242">
-        <v>0.0408</v>
       </c>
       <c r="C242">
         <v>0.04190000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243">
+      <c r="A243" s="2">
+        <v>45629</v>
+      </c>
+      <c r="B243">
         <v>0.0417</v>
-      </c>
-      <c r="B243">
-        <v>0.0411</v>
       </c>
       <c r="C243">
         <v>0.0423</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244">
+      <c r="A244" s="2">
+        <v>45630</v>
+      </c>
+      <c r="B244">
         <v>0.0413</v>
-      </c>
-      <c r="B244">
-        <v>0.0407</v>
       </c>
       <c r="C244">
         <v>0.04190000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245">
+      <c r="A245" s="2">
+        <v>45631</v>
+      </c>
+      <c r="B245">
         <v>0.0415</v>
-      </c>
-      <c r="B245">
-        <v>0.0407</v>
       </c>
       <c r="C245">
         <v>0.0417</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246">
+      <c r="A246" s="2">
+        <v>45632</v>
+      </c>
+      <c r="B246">
         <v>0.04099999999999999</v>
-      </c>
-      <c r="B246">
-        <v>0.0403</v>
       </c>
       <c r="C246">
         <v>0.0415</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247">
+      <c r="A247" s="2">
+        <v>45635</v>
+      </c>
+      <c r="B247">
         <v>0.0413</v>
-      </c>
-      <c r="B247">
-        <v>0.0407</v>
       </c>
       <c r="C247">
         <v>0.042</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248">
+      <c r="A248" s="2">
+        <v>45636</v>
+      </c>
+      <c r="B248">
         <v>0.0415</v>
-      </c>
-      <c r="B248">
-        <v>0.0409</v>
       </c>
       <c r="C248">
         <v>0.04219999999999999</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249">
+      <c r="A249" s="2">
+        <v>45637</v>
+      </c>
+      <c r="B249">
         <v>0.0415</v>
-      </c>
-      <c r="B249">
-        <v>0.0413</v>
       </c>
       <c r="C249">
         <v>0.0426</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250">
-        <v>0.0418</v>
+      <c r="A250" s="2">
+        <v>45638</v>
       </c>
       <c r="B250">
         <v>0.0418</v>
@@ -3016,8 +3077,8 @@
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251">
-        <v>0.0425</v>
+      <c r="A251" s="2">
+        <v>45639</v>
       </c>
       <c r="B251">
         <v>0.0425</v>
@@ -3027,8 +3088,8 @@
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252">
-        <v>0.0425</v>
+      <c r="A252" s="2">
+        <v>45642</v>
       </c>
       <c r="B252">
         <v>0.0425</v>
@@ -3038,1928 +3099,2292 @@
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253">
+      <c r="A253" s="2">
+        <v>45643</v>
+      </c>
+      <c r="B253">
         <v>0.0425</v>
-      </c>
-      <c r="B253">
-        <v>0.0426</v>
       </c>
       <c r="C253">
         <v>0.044</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254">
+      <c r="A254" s="2">
+        <v>45644</v>
+      </c>
+      <c r="B254">
         <v>0.0435</v>
-      </c>
-      <c r="B254">
-        <v>0.044</v>
       </c>
       <c r="C254">
         <v>0.045</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255">
+      <c r="A255" s="2">
+        <v>45645</v>
+      </c>
+      <c r="B255">
         <v>0.0432</v>
-      </c>
-      <c r="B255">
-        <v>0.0443</v>
       </c>
       <c r="C255">
         <v>0.0457</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256">
+      <c r="A256" s="2">
+        <v>45646</v>
+      </c>
+      <c r="B256">
         <v>0.043</v>
-      </c>
-      <c r="B256">
-        <v>0.0437</v>
       </c>
       <c r="C256">
         <v>0.0452</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257">
+      <c r="A257" s="2">
+        <v>45649</v>
+      </c>
+      <c r="B257">
         <v>0.043</v>
-      </c>
-      <c r="B257">
-        <v>0.0444</v>
       </c>
       <c r="C257">
         <v>0.0459</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258">
+      <c r="A258" s="2">
+        <v>45650</v>
+      </c>
+      <c r="B258">
         <v>0.0429</v>
-      </c>
-      <c r="B258">
-        <v>0.0443</v>
       </c>
       <c r="C258">
         <v>0.0459</v>
       </c>
     </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>45651</v>
+      </c>
+    </row>
     <row r="260" spans="1:3">
-      <c r="A260">
+      <c r="A260" s="2">
+        <v>45652</v>
+      </c>
+      <c r="B260">
         <v>0.043</v>
-      </c>
-      <c r="B260">
-        <v>0.0442</v>
       </c>
       <c r="C260">
         <v>0.0458</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261">
+      <c r="A261" s="2">
+        <v>45653</v>
+      </c>
+      <c r="B261">
         <v>0.0431</v>
-      </c>
-      <c r="B261">
-        <v>0.0445</v>
       </c>
       <c r="C261">
         <v>0.0462</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262">
+      <c r="A262" s="2">
+        <v>45656</v>
+      </c>
+      <c r="B262">
         <v>0.0424</v>
-      </c>
-      <c r="B262">
-        <v>0.0437</v>
       </c>
       <c r="C262">
         <v>0.0455</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263">
+      <c r="A263" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B263">
         <v>0.0425</v>
-      </c>
-      <c r="B263">
-        <v>0.0438</v>
       </c>
       <c r="C263">
         <v>0.0458</v>
       </c>
     </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>45658</v>
+      </c>
+    </row>
     <row r="265" spans="1:3">
-      <c r="A265">
+      <c r="A265" s="2">
+        <v>45659</v>
+      </c>
+      <c r="B265">
         <v>0.0425</v>
-      </c>
-      <c r="B265">
-        <v>0.0438</v>
       </c>
       <c r="C265">
         <v>0.0457</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266">
+      <c r="A266" s="2">
+        <v>45660</v>
+      </c>
+      <c r="B266">
         <v>0.0428</v>
-      </c>
-      <c r="B266">
-        <v>0.0441</v>
       </c>
       <c r="C266">
         <v>0.046</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267">
+      <c r="A267" s="2">
+        <v>45663</v>
+      </c>
+      <c r="B267">
         <v>0.0428</v>
-      </c>
-      <c r="B267">
-        <v>0.0442</v>
       </c>
       <c r="C267">
         <v>0.0462</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268">
+      <c r="A268" s="2">
+        <v>45664</v>
+      </c>
+      <c r="B268">
         <v>0.043</v>
-      </c>
-      <c r="B268">
-        <v>0.0446</v>
       </c>
       <c r="C268">
         <v>0.0467</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269">
+      <c r="A269" s="2">
+        <v>45665</v>
+      </c>
+      <c r="B269">
         <v>0.0428</v>
-      </c>
-      <c r="B269">
-        <v>0.0445</v>
       </c>
       <c r="C269">
         <v>0.0467</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270">
+      <c r="A270" s="2">
+        <v>45666</v>
+      </c>
+      <c r="B270">
         <v>0.04269999999999999</v>
-      </c>
-      <c r="B270">
-        <v>0.0446</v>
       </c>
       <c r="C270">
         <v>0.04679999999999999</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271">
+      <c r="A271" s="2">
+        <v>45667</v>
+      </c>
+      <c r="B271">
         <v>0.044</v>
-      </c>
-      <c r="B271">
-        <v>0.0459</v>
       </c>
       <c r="C271">
         <v>0.04769999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272">
+      <c r="A272" s="2">
+        <v>45670</v>
+      </c>
+      <c r="B272">
         <v>0.044</v>
-      </c>
-      <c r="B272">
-        <v>0.0461</v>
       </c>
       <c r="C272">
         <v>0.0479</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273">
+      <c r="A273" s="2">
+        <v>45671</v>
+      </c>
+      <c r="B273">
         <v>0.0437</v>
-      </c>
-      <c r="B273">
-        <v>0.0459</v>
       </c>
       <c r="C273">
         <v>0.0478</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274">
+      <c r="A274" s="2">
+        <v>45672</v>
+      </c>
+      <c r="B274">
         <v>0.04269999999999999</v>
-      </c>
-      <c r="B274">
-        <v>0.0445</v>
       </c>
       <c r="C274">
         <v>0.0466</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275">
+      <c r="A275" s="2">
+        <v>45673</v>
+      </c>
+      <c r="B275">
         <v>0.0423</v>
-      </c>
-      <c r="B275">
-        <v>0.04389999999999999</v>
       </c>
       <c r="C275">
         <v>0.0461</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276">
+      <c r="A276" s="2">
+        <v>45674</v>
+      </c>
+      <c r="B276">
         <v>0.04269999999999999</v>
-      </c>
-      <c r="B276">
-        <v>0.0442</v>
       </c>
       <c r="C276">
         <v>0.0461</v>
       </c>
     </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>45677</v>
+      </c>
+    </row>
     <row r="278" spans="1:3">
-      <c r="A278">
+      <c r="A278" s="2">
+        <v>45678</v>
+      </c>
+      <c r="B278">
         <v>0.0429</v>
-      </c>
-      <c r="B278">
-        <v>0.044</v>
       </c>
       <c r="C278">
         <v>0.0457</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279">
+      <c r="A279" s="2">
+        <v>45679</v>
+      </c>
+      <c r="B279">
         <v>0.0429</v>
-      </c>
-      <c r="B279">
-        <v>0.0443</v>
       </c>
       <c r="C279">
         <v>0.046</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280">
+      <c r="A280" s="2">
+        <v>45680</v>
+      </c>
+      <c r="B280">
         <v>0.0429</v>
-      </c>
-      <c r="B280">
-        <v>0.0445</v>
       </c>
       <c r="C280">
         <v>0.04650000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281">
+      <c r="A281" s="2">
+        <v>45681</v>
+      </c>
+      <c r="B281">
         <v>0.04269999999999999</v>
-      </c>
-      <c r="B281">
-        <v>0.0443</v>
       </c>
       <c r="C281">
         <v>0.0463</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282">
+      <c r="A282" s="2">
+        <v>45684</v>
+      </c>
+      <c r="B282">
         <v>0.0417</v>
-      </c>
-      <c r="B282">
-        <v>0.0432</v>
       </c>
       <c r="C282">
         <v>0.0453</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283">
+      <c r="A283" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B283">
         <v>0.04190000000000001</v>
-      </c>
-      <c r="B283">
-        <v>0.0433</v>
       </c>
       <c r="C283">
         <v>0.0455</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284">
+      <c r="A284" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B284">
         <v>0.0421</v>
-      </c>
-      <c r="B284">
-        <v>0.0435</v>
       </c>
       <c r="C284">
         <v>0.0455</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285">
+      <c r="A285" s="2">
+        <v>45687</v>
+      </c>
+      <c r="B285">
         <v>0.0418</v>
-      </c>
-      <c r="B285">
-        <v>0.0431</v>
       </c>
       <c r="C285">
         <v>0.0452</v>
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286">
+      <c r="A286" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B286">
         <v>0.04219999999999999</v>
-      </c>
-      <c r="B286">
-        <v>0.0436</v>
       </c>
       <c r="C286">
         <v>0.0458</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287">
+      <c r="A287" s="2">
+        <v>45691</v>
+      </c>
+      <c r="B287">
         <v>0.0426</v>
-      </c>
-      <c r="B287">
-        <v>0.0435</v>
       </c>
       <c r="C287">
         <v>0.0454</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288">
+      <c r="A288" s="2">
+        <v>45692</v>
+      </c>
+      <c r="B288">
         <v>0.0421</v>
-      </c>
-      <c r="B288">
-        <v>0.0431</v>
       </c>
       <c r="C288">
         <v>0.0452</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289">
+      <c r="A289" s="2">
+        <v>45693</v>
+      </c>
+      <c r="B289">
         <v>0.0417</v>
-      </c>
-      <c r="B289">
-        <v>0.0424</v>
       </c>
       <c r="C289">
         <v>0.0443</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290">
+      <c r="A290" s="2">
+        <v>45694</v>
+      </c>
+      <c r="B290">
         <v>0.0421</v>
-      </c>
-      <c r="B290">
-        <v>0.0428</v>
       </c>
       <c r="C290">
         <v>0.0445</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291">
+      <c r="A291" s="2">
+        <v>45695</v>
+      </c>
+      <c r="B291">
         <v>0.0429</v>
-      </c>
-      <c r="B291">
-        <v>0.0434</v>
       </c>
       <c r="C291">
         <v>0.0449</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292">
+      <c r="A292" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B292">
         <v>0.0428</v>
-      </c>
-      <c r="B292">
-        <v>0.0434</v>
       </c>
       <c r="C292">
         <v>0.0451</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293">
+      <c r="A293" s="2">
+        <v>45699</v>
+      </c>
+      <c r="B293">
         <v>0.0429</v>
-      </c>
-      <c r="B293">
-        <v>0.0437</v>
       </c>
       <c r="C293">
         <v>0.0454</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294">
+      <c r="A294" s="2">
+        <v>45700</v>
+      </c>
+      <c r="B294">
         <v>0.0436</v>
-      </c>
-      <c r="B294">
-        <v>0.04480000000000001</v>
       </c>
       <c r="C294">
         <v>0.0462</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295">
+      <c r="A295" s="2">
+        <v>45701</v>
+      </c>
+      <c r="B295">
         <v>0.0431</v>
-      </c>
-      <c r="B295">
-        <v>0.04389999999999999</v>
       </c>
       <c r="C295">
         <v>0.0452</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296">
+      <c r="A296" s="2">
+        <v>45702</v>
+      </c>
+      <c r="B296">
         <v>0.0426</v>
-      </c>
-      <c r="B296">
-        <v>0.0433</v>
       </c>
       <c r="C296">
         <v>0.0447</v>
       </c>
     </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>45705</v>
+      </c>
+    </row>
     <row r="298" spans="1:3">
-      <c r="A298">
+      <c r="A298" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B298">
         <v>0.0429</v>
-      </c>
-      <c r="B298">
-        <v>0.044</v>
       </c>
       <c r="C298">
         <v>0.0455</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299">
+      <c r="A299" s="2">
+        <v>45707</v>
+      </c>
+      <c r="B299">
         <v>0.0428</v>
-      </c>
-      <c r="B299">
-        <v>0.0437</v>
       </c>
       <c r="C299">
         <v>0.0453</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300">
+      <c r="A300" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B300">
         <v>0.0428</v>
-      </c>
-      <c r="B300">
-        <v>0.0434</v>
       </c>
       <c r="C300">
         <v>0.045</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301">
+      <c r="A301" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B301">
         <v>0.04190000000000001</v>
-      </c>
-      <c r="B301">
-        <v>0.0426</v>
       </c>
       <c r="C301">
         <v>0.0442</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302">
+      <c r="A302" s="2">
+        <v>45712</v>
+      </c>
+      <c r="B302">
         <v>0.0413</v>
-      </c>
-      <c r="B302">
-        <v>0.0423</v>
       </c>
       <c r="C302">
         <v>0.044</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303">
+      <c r="A303" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B303">
         <v>0.0407</v>
-      </c>
-      <c r="B303">
-        <v>0.0412</v>
       </c>
       <c r="C303">
         <v>0.043</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304">
+      <c r="A304" s="2">
+        <v>45714</v>
+      </c>
+      <c r="B304">
         <v>0.0405</v>
-      </c>
-      <c r="B304">
-        <v>0.0406</v>
       </c>
       <c r="C304">
         <v>0.0425</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305">
+      <c r="A305" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B305">
         <v>0.0407</v>
-      </c>
-      <c r="B305">
-        <v>0.0409</v>
       </c>
       <c r="C305">
         <v>0.0429</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306">
+      <c r="A306" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B306">
         <v>0.0399</v>
-      </c>
-      <c r="B306">
-        <v>0.0403</v>
       </c>
       <c r="C306">
         <v>0.0424</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307">
+      <c r="A307" s="2">
+        <v>45719</v>
+      </c>
+      <c r="B307">
         <v>0.0396</v>
-      </c>
-      <c r="B307">
-        <v>0.0397</v>
       </c>
       <c r="C307">
         <v>0.0416</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308">
+      <c r="A308" s="2">
+        <v>45720</v>
+      </c>
+      <c r="B308">
         <v>0.0396</v>
-      </c>
-      <c r="B308">
-        <v>0.0401</v>
       </c>
       <c r="C308">
         <v>0.04219999999999999</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309">
+      <c r="A309" s="2">
+        <v>45721</v>
+      </c>
+      <c r="B309">
         <v>0.0399</v>
-      </c>
-      <c r="B309">
-        <v>0.0408</v>
       </c>
       <c r="C309">
         <v>0.0428</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310">
+      <c r="A310" s="2">
+        <v>45722</v>
+      </c>
+      <c r="B310">
         <v>0.0396</v>
-      </c>
-      <c r="B310">
-        <v>0.0406</v>
       </c>
       <c r="C310">
         <v>0.0429</v>
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311">
+      <c r="A311" s="2">
+        <v>45723</v>
+      </c>
+      <c r="B311">
         <v>0.0399</v>
-      </c>
-      <c r="B311">
-        <v>0.0409</v>
       </c>
       <c r="C311">
         <v>0.0432</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312">
+      <c r="A312" s="2">
+        <v>45726</v>
+      </c>
+      <c r="B312">
         <v>0.0389</v>
-      </c>
-      <c r="B312">
-        <v>0.0398</v>
       </c>
       <c r="C312">
         <v>0.04219999999999999</v>
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313">
+      <c r="A313" s="2">
+        <v>45727</v>
+      </c>
+      <c r="B313">
         <v>0.0394</v>
-      </c>
-      <c r="B313">
-        <v>0.0403</v>
       </c>
       <c r="C313">
         <v>0.0428</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314">
+      <c r="A314" s="2">
+        <v>45728</v>
+      </c>
+      <c r="B314">
         <v>0.0401</v>
-      </c>
-      <c r="B314">
-        <v>0.0409</v>
       </c>
       <c r="C314">
         <v>0.0432</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315">
+      <c r="A315" s="2">
+        <v>45729</v>
+      </c>
+      <c r="B315">
         <v>0.0394</v>
-      </c>
-      <c r="B315">
-        <v>0.04019999999999999</v>
       </c>
       <c r="C315">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316">
+      <c r="A316" s="2">
+        <v>45730</v>
+      </c>
+      <c r="B316">
         <v>0.04019999999999999</v>
-      </c>
-      <c r="B316">
-        <v>0.0409</v>
       </c>
       <c r="C316">
         <v>0.0431</v>
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317">
+      <c r="A317" s="2">
+        <v>45733</v>
+      </c>
+      <c r="B317">
         <v>0.0406</v>
-      </c>
-      <c r="B317">
-        <v>0.0411</v>
       </c>
       <c r="C317">
         <v>0.0431</v>
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318">
+      <c r="A318" s="2">
+        <v>45734</v>
+      </c>
+      <c r="B318">
         <v>0.0404</v>
-      </c>
-      <c r="B318">
-        <v>0.0407</v>
       </c>
       <c r="C318">
         <v>0.0429</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319">
+      <c r="A319" s="2">
+        <v>45735</v>
+      </c>
+      <c r="B319">
         <v>0.0399</v>
-      </c>
-      <c r="B319">
-        <v>0.0403</v>
       </c>
       <c r="C319">
         <v>0.0425</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320">
+      <c r="A320" s="2">
+        <v>45736</v>
+      </c>
+      <c r="B320">
         <v>0.0395</v>
-      </c>
-      <c r="B320">
-        <v>0.0401</v>
       </c>
       <c r="C320">
         <v>0.0424</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321">
+      <c r="A321" s="2">
+        <v>45737</v>
+      </c>
+      <c r="B321">
         <v>0.0394</v>
-      </c>
-      <c r="B321">
-        <v>0.04</v>
       </c>
       <c r="C321">
         <v>0.0425</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322">
+      <c r="A322" s="2">
+        <v>45740</v>
+      </c>
+      <c r="B322">
         <v>0.0404</v>
-      </c>
-      <c r="B322">
-        <v>0.0409</v>
       </c>
       <c r="C322">
         <v>0.0434</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323">
+      <c r="A323" s="2">
+        <v>45741</v>
+      </c>
+      <c r="B323">
         <v>0.0396</v>
-      </c>
-      <c r="B323">
-        <v>0.0407</v>
       </c>
       <c r="C323">
         <v>0.0431</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324">
+      <c r="A324" s="2">
+        <v>45742</v>
+      </c>
+      <c r="B324">
         <v>0.0398</v>
-      </c>
-      <c r="B324">
-        <v>0.0408</v>
       </c>
       <c r="C324">
         <v>0.0435</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325">
+      <c r="A325" s="2">
+        <v>45743</v>
+      </c>
+      <c r="B325">
         <v>0.0397</v>
-      </c>
-      <c r="B325">
-        <v>0.0409</v>
       </c>
       <c r="C325">
         <v>0.0438</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326">
+      <c r="A326" s="2">
+        <v>45744</v>
+      </c>
+      <c r="B326">
         <v>0.0389</v>
-      </c>
-      <c r="B326">
-        <v>0.0398</v>
       </c>
       <c r="C326">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327">
+      <c r="A327" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B327">
         <v>0.0389</v>
-      </c>
-      <c r="B327">
-        <v>0.0396</v>
       </c>
       <c r="C327">
         <v>0.0423</v>
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328">
+      <c r="A328" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B328">
         <v>0.0387</v>
-      </c>
-      <c r="B328">
-        <v>0.0391</v>
       </c>
       <c r="C328">
         <v>0.0417</v>
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329">
+      <c r="A329" s="2">
+        <v>45749</v>
+      </c>
+      <c r="B329">
         <v>0.0391</v>
-      </c>
-      <c r="B329">
-        <v>0.0395</v>
       </c>
       <c r="C329">
         <v>0.042</v>
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330">
+      <c r="A330" s="2">
+        <v>45750</v>
+      </c>
+      <c r="B330">
         <v>0.0371</v>
-      </c>
-      <c r="B330">
-        <v>0.0375</v>
       </c>
       <c r="C330">
         <v>0.0406</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331">
+      <c r="A331" s="2">
+        <v>45751</v>
+      </c>
+      <c r="B331">
         <v>0.0368</v>
-      </c>
-      <c r="B331">
-        <v>0.0372</v>
       </c>
       <c r="C331">
         <v>0.0401</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332">
+      <c r="A332" s="2">
+        <v>45754</v>
+      </c>
+      <c r="B332">
         <v>0.0373</v>
-      </c>
-      <c r="B332">
-        <v>0.0382</v>
       </c>
       <c r="C332">
         <v>0.0415</v>
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333">
+      <c r="A333" s="2">
+        <v>45755</v>
+      </c>
+      <c r="B333">
         <v>0.0371</v>
-      </c>
-      <c r="B333">
-        <v>0.0388</v>
       </c>
       <c r="C333">
         <v>0.0426</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334">
+      <c r="A334" s="2">
+        <v>45756</v>
+      </c>
+      <c r="B334">
         <v>0.0391</v>
-      </c>
-      <c r="B334">
-        <v>0.0406</v>
       </c>
       <c r="C334">
         <v>0.0434</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335">
+      <c r="A335" s="2">
+        <v>45757</v>
+      </c>
+      <c r="B335">
         <v>0.0384</v>
-      </c>
-      <c r="B335">
-        <v>0.0404</v>
       </c>
       <c r="C335">
         <v>0.044</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336">
+      <c r="A336" s="2">
+        <v>45758</v>
+      </c>
+      <c r="B336">
         <v>0.0396</v>
-      </c>
-      <c r="B336">
-        <v>0.0415</v>
       </c>
       <c r="C336">
         <v>0.04480000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337">
+      <c r="A337" s="2">
+        <v>45761</v>
+      </c>
+      <c r="B337">
         <v>0.0384</v>
-      </c>
-      <c r="B337">
-        <v>0.04019999999999999</v>
       </c>
       <c r="C337">
         <v>0.0438</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338">
+      <c r="A338" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B338">
         <v>0.0384</v>
-      </c>
-      <c r="B338">
-        <v>0.0398</v>
       </c>
       <c r="C338">
         <v>0.0435</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339">
+      <c r="A339" s="2">
+        <v>45763</v>
+      </c>
+      <c r="B339">
         <v>0.0377</v>
-      </c>
-      <c r="B339">
-        <v>0.0391</v>
       </c>
       <c r="C339">
         <v>0.0429</v>
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340">
+      <c r="A340" s="2">
+        <v>45764</v>
+      </c>
+      <c r="B340">
         <v>0.0381</v>
-      </c>
-      <c r="B340">
-        <v>0.0395</v>
       </c>
       <c r="C340">
         <v>0.0434</v>
       </c>
     </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
+        <v>45765</v>
+      </c>
+    </row>
     <row r="342" spans="1:3">
-      <c r="A342">
+      <c r="A342" s="2">
+        <v>45768</v>
+      </c>
+      <c r="B342">
         <v>0.0375</v>
-      </c>
-      <c r="B342">
-        <v>0.0397</v>
       </c>
       <c r="C342">
         <v>0.0442</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343">
+      <c r="A343" s="2">
+        <v>45769</v>
+      </c>
+      <c r="B343">
         <v>0.03759999999999999</v>
-      </c>
-      <c r="B343">
-        <v>0.0398</v>
       </c>
       <c r="C343">
         <v>0.0441</v>
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344">
+      <c r="A344" s="2">
+        <v>45770</v>
+      </c>
+      <c r="B344">
         <v>0.0381</v>
-      </c>
-      <c r="B344">
-        <v>0.04</v>
       </c>
       <c r="C344">
         <v>0.044</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345">
+      <c r="A345" s="2">
+        <v>45771</v>
+      </c>
+      <c r="B345">
         <v>0.0377</v>
-      </c>
-      <c r="B345">
-        <v>0.0391</v>
       </c>
       <c r="C345">
         <v>0.0432</v>
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346">
+      <c r="A346" s="2">
+        <v>45772</v>
+      </c>
+      <c r="B346">
         <v>0.0374</v>
-      </c>
-      <c r="B346">
-        <v>0.0388</v>
       </c>
       <c r="C346">
         <v>0.0429</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347">
+      <c r="A347" s="2">
+        <v>45775</v>
+      </c>
+      <c r="B347">
         <v>0.0367</v>
-      </c>
-      <c r="B347">
-        <v>0.0381</v>
       </c>
       <c r="C347">
         <v>0.0423</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348">
+      <c r="A348" s="2">
+        <v>45776</v>
+      </c>
+      <c r="B348">
         <v>0.0365</v>
-      </c>
-      <c r="B348">
-        <v>0.0377</v>
       </c>
       <c r="C348">
         <v>0.04190000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349">
+      <c r="A349" s="2">
+        <v>45777</v>
+      </c>
+      <c r="B349">
         <v>0.036</v>
-      </c>
-      <c r="B349">
-        <v>0.0372</v>
       </c>
       <c r="C349">
         <v>0.0417</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350">
+      <c r="A350" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B350">
         <v>0.03700000000000001</v>
-      </c>
-      <c r="B350">
-        <v>0.0381</v>
       </c>
       <c r="C350">
         <v>0.0425</v>
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351">
+      <c r="A351" s="2">
+        <v>45779</v>
+      </c>
+      <c r="B351">
         <v>0.0383</v>
-      </c>
-      <c r="B351">
-        <v>0.0392</v>
       </c>
       <c r="C351">
         <v>0.0433</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352">
+      <c r="A352" s="2">
+        <v>45782</v>
+      </c>
+      <c r="B352">
         <v>0.0383</v>
-      </c>
-      <c r="B352">
-        <v>0.0395</v>
       </c>
       <c r="C352">
         <v>0.0436</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353">
+      <c r="A353" s="2">
+        <v>45783</v>
+      </c>
+      <c r="B353">
         <v>0.0378</v>
-      </c>
-      <c r="B353">
-        <v>0.039</v>
       </c>
       <c r="C353">
         <v>0.043</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354">
+      <c r="A354" s="2">
+        <v>45784</v>
+      </c>
+      <c r="B354">
         <v>0.0378</v>
-      </c>
-      <c r="B354">
-        <v>0.0387</v>
       </c>
       <c r="C354">
         <v>0.0426</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355">
+      <c r="A355" s="2">
+        <v>45785</v>
+      </c>
+      <c r="B355">
         <v>0.039</v>
-      </c>
-      <c r="B355">
-        <v>0.04</v>
       </c>
       <c r="C355">
         <v>0.0437</v>
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356">
+      <c r="A356" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B356">
         <v>0.0388</v>
-      </c>
-      <c r="B356">
-        <v>0.04</v>
       </c>
       <c r="C356">
         <v>0.0437</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357">
+      <c r="A357" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B357">
         <v>0.0398</v>
-      </c>
-      <c r="B357">
-        <v>0.0409</v>
       </c>
       <c r="C357">
         <v>0.0445</v>
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358">
+      <c r="A358" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B358">
         <v>0.04019999999999999</v>
-      </c>
-      <c r="B358">
-        <v>0.0412</v>
       </c>
       <c r="C358">
         <v>0.0449</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359">
+      <c r="A359" s="2">
+        <v>45791</v>
+      </c>
+      <c r="B359">
         <v>0.0405</v>
-      </c>
-      <c r="B359">
-        <v>0.0417</v>
       </c>
       <c r="C359">
         <v>0.0453</v>
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360">
+      <c r="A360" s="2">
+        <v>45792</v>
+      </c>
+      <c r="B360">
         <v>0.0396</v>
-      </c>
-      <c r="B360">
-        <v>0.0407</v>
       </c>
       <c r="C360">
         <v>0.0445</v>
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361">
+      <c r="A361" s="2">
+        <v>45793</v>
+      </c>
+      <c r="B361">
         <v>0.0398</v>
-      </c>
-      <c r="B361">
-        <v>0.0406</v>
       </c>
       <c r="C361">
         <v>0.0443</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362">
+      <c r="A362" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B362">
         <v>0.0397</v>
-      </c>
-      <c r="B362">
-        <v>0.0407</v>
       </c>
       <c r="C362">
         <v>0.0446</v>
       </c>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363">
+      <c r="A363" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B363">
         <v>0.0397</v>
-      </c>
-      <c r="B363">
-        <v>0.0407</v>
       </c>
       <c r="C363">
         <v>0.04480000000000001</v>
       </c>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364">
+      <c r="A364" s="2">
+        <v>45798</v>
+      </c>
+      <c r="B364">
         <v>0.04</v>
-      </c>
-      <c r="B364">
-        <v>0.0415</v>
       </c>
       <c r="C364">
         <v>0.0458</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365">
+      <c r="A365" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B365">
         <v>0.04</v>
-      </c>
-      <c r="B365">
-        <v>0.0411</v>
       </c>
       <c r="C365">
         <v>0.0454</v>
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366">
+      <c r="A366" s="2">
+        <v>45800</v>
+      </c>
+      <c r="B366">
         <v>0.04</v>
-      </c>
-      <c r="B366">
-        <v>0.0408</v>
       </c>
       <c r="C366">
         <v>0.0451</v>
       </c>
     </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="2">
+        <v>45803</v>
+      </c>
+    </row>
     <row r="368" spans="1:3">
-      <c r="A368">
+      <c r="A368" s="2">
+        <v>45804</v>
+      </c>
+      <c r="B368">
         <v>0.0392</v>
-      </c>
-      <c r="B368">
-        <v>0.0404</v>
       </c>
       <c r="C368">
         <v>0.0443</v>
       </c>
     </row>
     <row r="369" spans="1:3">
-      <c r="A369">
+      <c r="A369" s="2">
+        <v>45805</v>
+      </c>
+      <c r="B369">
         <v>0.0396</v>
-      </c>
-      <c r="B369">
-        <v>0.0405</v>
       </c>
       <c r="C369">
         <v>0.0447</v>
       </c>
     </row>
     <row r="370" spans="1:3">
-      <c r="A370">
+      <c r="A370" s="2">
+        <v>45806</v>
+      </c>
+      <c r="B370">
         <v>0.0392</v>
-      </c>
-      <c r="B370">
-        <v>0.04</v>
       </c>
       <c r="C370">
         <v>0.0443</v>
       </c>
     </row>
     <row r="371" spans="1:3">
-      <c r="A371">
+      <c r="A371" s="2">
+        <v>45807</v>
+      </c>
+      <c r="B371">
         <v>0.0389</v>
-      </c>
-      <c r="B371">
-        <v>0.0396</v>
       </c>
       <c r="C371">
         <v>0.0441</v>
       </c>
     </row>
     <row r="372" spans="1:3">
-      <c r="A372">
+      <c r="A372" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B372">
         <v>0.0394</v>
-      </c>
-      <c r="B372">
-        <v>0.0401</v>
       </c>
       <c r="C372">
         <v>0.0446</v>
       </c>
     </row>
     <row r="373" spans="1:3">
-      <c r="A373">
+      <c r="A373" s="2">
+        <v>45811</v>
+      </c>
+      <c r="B373">
         <v>0.0396</v>
-      </c>
-      <c r="B373">
-        <v>0.0404</v>
       </c>
       <c r="C373">
         <v>0.0446</v>
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374">
+      <c r="A374" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B374">
         <v>0.0387</v>
-      </c>
-      <c r="B374">
-        <v>0.0393</v>
       </c>
       <c r="C374">
         <v>0.0437</v>
       </c>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375">
+      <c r="A375" s="2">
+        <v>45813</v>
+      </c>
+      <c r="B375">
         <v>0.0392</v>
-      </c>
-      <c r="B375">
-        <v>0.0399</v>
       </c>
       <c r="C375">
         <v>0.044</v>
       </c>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376">
+      <c r="A376" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B376">
         <v>0.0404</v>
-      </c>
-      <c r="B376">
-        <v>0.0413</v>
       </c>
       <c r="C376">
         <v>0.0451</v>
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="A377">
+      <c r="A377" s="2">
+        <v>45817</v>
+      </c>
+      <c r="B377">
         <v>0.0401</v>
-      </c>
-      <c r="B377">
-        <v>0.0409</v>
       </c>
       <c r="C377">
         <v>0.0449</v>
       </c>
     </row>
     <row r="378" spans="1:3">
-      <c r="A378">
+      <c r="A378" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B378">
         <v>0.0401</v>
-      </c>
-      <c r="B378">
-        <v>0.0408</v>
       </c>
       <c r="C378">
         <v>0.0447</v>
       </c>
     </row>
     <row r="379" spans="1:3">
-      <c r="A379">
+      <c r="A379" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B379">
         <v>0.0394</v>
-      </c>
-      <c r="B379">
-        <v>0.04019999999999999</v>
       </c>
       <c r="C379">
         <v>0.0441</v>
       </c>
     </row>
     <row r="380" spans="1:3">
-      <c r="A380">
+      <c r="A380" s="2">
+        <v>45820</v>
+      </c>
+      <c r="B380">
         <v>0.039</v>
-      </c>
-      <c r="B380">
-        <v>0.0397</v>
       </c>
       <c r="C380">
         <v>0.0436</v>
       </c>
     </row>
     <row r="381" spans="1:3">
-      <c r="A381">
+      <c r="A381" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B381">
         <v>0.0396</v>
-      </c>
-      <c r="B381">
-        <v>0.04019999999999999</v>
       </c>
       <c r="C381">
         <v>0.0441</v>
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382">
+      <c r="A382" s="2">
+        <v>45824</v>
+      </c>
+      <c r="B382">
         <v>0.0397</v>
-      </c>
-      <c r="B382">
-        <v>0.0404</v>
       </c>
       <c r="C382">
         <v>0.0446</v>
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383">
+      <c r="A383" s="2">
+        <v>45825</v>
+      </c>
+      <c r="B383">
         <v>0.0394</v>
-      </c>
-      <c r="B383">
-        <v>0.0399</v>
       </c>
       <c r="C383">
         <v>0.04389999999999999</v>
       </c>
     </row>
     <row r="384" spans="1:3">
-      <c r="A384">
+      <c r="A384" s="2">
+        <v>45826</v>
+      </c>
+      <c r="B384">
         <v>0.0394</v>
-      </c>
-      <c r="B384">
-        <v>0.0398</v>
       </c>
       <c r="C384">
         <v>0.0438</v>
       </c>
     </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="2">
+        <v>45827</v>
+      </c>
+    </row>
     <row r="386" spans="1:3">
-      <c r="A386">
+      <c r="A386" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B386">
         <v>0.039</v>
-      </c>
-      <c r="B386">
-        <v>0.0396</v>
       </c>
       <c r="C386">
         <v>0.0438</v>
       </c>
     </row>
     <row r="387" spans="1:3">
-      <c r="A387">
+      <c r="A387" s="2">
+        <v>45831</v>
+      </c>
+      <c r="B387">
         <v>0.0384</v>
-      </c>
-      <c r="B387">
-        <v>0.0391</v>
       </c>
       <c r="C387">
         <v>0.0434</v>
       </c>
     </row>
     <row r="388" spans="1:3">
-      <c r="A388">
+      <c r="A388" s="2">
+        <v>45832</v>
+      </c>
+      <c r="B388">
         <v>0.0375</v>
-      </c>
-      <c r="B388">
-        <v>0.0386</v>
       </c>
       <c r="C388">
         <v>0.043</v>
       </c>
     </row>
     <row r="389" spans="1:3">
-      <c r="A389">
+      <c r="A389" s="2">
+        <v>45833</v>
+      </c>
+      <c r="B389">
         <v>0.0374</v>
-      </c>
-      <c r="B389">
-        <v>0.0383</v>
       </c>
       <c r="C389">
         <v>0.0429</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390">
+      <c r="A390" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B390">
         <v>0.03700000000000001</v>
-      </c>
-      <c r="B390">
-        <v>0.0379</v>
       </c>
       <c r="C390">
         <v>0.0426</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391">
+      <c r="A391" s="2">
+        <v>45835</v>
+      </c>
+      <c r="B391">
         <v>0.0373</v>
-      </c>
-      <c r="B391">
-        <v>0.0383</v>
       </c>
       <c r="C391">
         <v>0.0429</v>
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392">
+      <c r="A392" s="2">
+        <v>45838</v>
+      </c>
+      <c r="B392">
         <v>0.0372</v>
-      </c>
-      <c r="B392">
-        <v>0.0379</v>
       </c>
       <c r="C392">
         <v>0.0424</v>
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393">
+      <c r="A393" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B393">
         <v>0.0378</v>
-      </c>
-      <c r="B393">
-        <v>0.0384</v>
       </c>
       <c r="C393">
         <v>0.0426</v>
       </c>
     </row>
     <row r="394" spans="1:3">
-      <c r="A394">
+      <c r="A394" s="2">
+        <v>45840</v>
+      </c>
+      <c r="B394">
         <v>0.0378</v>
-      </c>
-      <c r="B394">
-        <v>0.0387</v>
       </c>
       <c r="C394">
         <v>0.043</v>
       </c>
     </row>
     <row r="395" spans="1:3">
-      <c r="A395">
+      <c r="A395" s="2">
+        <v>45841</v>
+      </c>
+      <c r="B395">
         <v>0.0388</v>
-      </c>
-      <c r="B395">
-        <v>0.0394</v>
       </c>
       <c r="C395">
         <v>0.0435</v>
       </c>
     </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="2">
+        <v>45842</v>
+      </c>
+    </row>
     <row r="397" spans="1:3">
-      <c r="A397">
+      <c r="A397" s="2">
+        <v>45845</v>
+      </c>
+      <c r="B397">
         <v>0.039</v>
-      </c>
-      <c r="B397">
-        <v>0.0396</v>
       </c>
       <c r="C397">
         <v>0.044</v>
       </c>
     </row>
     <row r="398" spans="1:3">
-      <c r="A398">
+      <c r="A398" s="2">
+        <v>45846</v>
+      </c>
+      <c r="B398">
         <v>0.039</v>
-      </c>
-      <c r="B398">
-        <v>0.0399</v>
       </c>
       <c r="C398">
         <v>0.0442</v>
       </c>
     </row>
     <row r="399" spans="1:3">
-      <c r="A399">
+      <c r="A399" s="2">
+        <v>45847</v>
+      </c>
+      <c r="B399">
         <v>0.0386</v>
-      </c>
-      <c r="B399">
-        <v>0.0392</v>
       </c>
       <c r="C399">
         <v>0.0434</v>
       </c>
     </row>
     <row r="400" spans="1:3">
-      <c r="A400">
+      <c r="A400" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B400">
         <v>0.0386</v>
-      </c>
-      <c r="B400">
-        <v>0.0393</v>
       </c>
       <c r="C400">
         <v>0.0435</v>
       </c>
     </row>
     <row r="401" spans="1:3">
-      <c r="A401">
+      <c r="A401" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B401">
         <v>0.039</v>
-      </c>
-      <c r="B401">
-        <v>0.0399</v>
       </c>
       <c r="C401">
         <v>0.0443</v>
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402">
+      <c r="A402" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B402">
         <v>0.039</v>
-      </c>
-      <c r="B402">
-        <v>0.0398</v>
       </c>
       <c r="C402">
         <v>0.0443</v>
       </c>
     </row>
     <row r="403" spans="1:3">
-      <c r="A403">
+      <c r="A403" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B403">
         <v>0.0395</v>
-      </c>
-      <c r="B403">
-        <v>0.0405</v>
       </c>
       <c r="C403">
         <v>0.045</v>
       </c>
     </row>
     <row r="404" spans="1:3">
-      <c r="A404">
+      <c r="A404" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B404">
         <v>0.0388</v>
-      </c>
-      <c r="B404">
-        <v>0.0399</v>
       </c>
       <c r="C404">
         <v>0.0446</v>
       </c>
     </row>
     <row r="405" spans="1:3">
-      <c r="A405">
+      <c r="A405" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B405">
         <v>0.0391</v>
-      </c>
-      <c r="B405">
-        <v>0.0401</v>
       </c>
       <c r="C405">
         <v>0.0447</v>
       </c>
     </row>
     <row r="406" spans="1:3">
-      <c r="A406">
+      <c r="A406" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B406">
         <v>0.0388</v>
-      </c>
-      <c r="B406">
-        <v>0.0396</v>
       </c>
       <c r="C406">
         <v>0.0444</v>
       </c>
     </row>
     <row r="407" spans="1:3">
-      <c r="A407">
+      <c r="A407" s="2">
+        <v>45859</v>
+      </c>
+      <c r="B407">
         <v>0.0385</v>
-      </c>
-      <c r="B407">
-        <v>0.0391</v>
       </c>
       <c r="C407">
         <v>0.0438</v>
       </c>
     </row>
     <row r="408" spans="1:3">
-      <c r="A408">
+      <c r="A408" s="2">
+        <v>45860</v>
+      </c>
+      <c r="B408">
         <v>0.0383</v>
-      </c>
-      <c r="B408">
-        <v>0.0388</v>
       </c>
       <c r="C408">
         <v>0.0435</v>
       </c>
     </row>
     <row r="409" spans="1:3">
-      <c r="A409">
+      <c r="A409" s="2">
+        <v>45861</v>
+      </c>
+      <c r="B409">
         <v>0.0388</v>
-      </c>
-      <c r="B409">
-        <v>0.0394</v>
       </c>
       <c r="C409">
         <v>0.044</v>
       </c>
     </row>
     <row r="410" spans="1:3">
-      <c r="A410">
+      <c r="A410" s="2">
+        <v>45862</v>
+      </c>
+      <c r="B410">
         <v>0.0391</v>
-      </c>
-      <c r="B410">
-        <v>0.0398</v>
       </c>
       <c r="C410">
         <v>0.0443</v>
       </c>
     </row>
     <row r="411" spans="1:3">
-      <c r="A411">
+      <c r="A411" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B411">
         <v>0.0391</v>
-      </c>
-      <c r="B411">
-        <v>0.0395</v>
       </c>
       <c r="C411">
         <v>0.044</v>
       </c>
     </row>
     <row r="412" spans="1:3">
-      <c r="A412">
+      <c r="A412" s="2">
+        <v>45866</v>
+      </c>
+      <c r="B412">
         <v>0.0391</v>
-      </c>
-      <c r="B412">
-        <v>0.0396</v>
       </c>
       <c r="C412">
         <v>0.0442</v>
       </c>
     </row>
     <row r="413" spans="1:3">
-      <c r="A413">
+      <c r="A413" s="2">
+        <v>45867</v>
+      </c>
+      <c r="B413">
         <v>0.0386</v>
-      </c>
-      <c r="B413">
-        <v>0.039</v>
       </c>
       <c r="C413">
         <v>0.0434</v>
       </c>
     </row>
     <row r="414" spans="1:3">
-      <c r="A414">
+      <c r="A414" s="2">
+        <v>45868</v>
+      </c>
+      <c r="B414">
         <v>0.0394</v>
-      </c>
-      <c r="B414">
-        <v>0.0396</v>
       </c>
       <c r="C414">
         <v>0.0438</v>
       </c>
     </row>
     <row r="415" spans="1:3">
-      <c r="A415">
+      <c r="A415" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B415">
         <v>0.0394</v>
-      </c>
-      <c r="B415">
-        <v>0.0396</v>
       </c>
       <c r="C415">
         <v>0.0437</v>
       </c>
     </row>
     <row r="416" spans="1:3">
-      <c r="A416">
+      <c r="A416" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B416">
         <v>0.0369</v>
-      </c>
-      <c r="B416">
-        <v>0.0377</v>
       </c>
       <c r="C416">
         <v>0.0423</v>
       </c>
     </row>
     <row r="417" spans="1:3">
-      <c r="A417">
+      <c r="A417" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B417">
         <v>0.0369</v>
-      </c>
-      <c r="B417">
-        <v>0.0375</v>
       </c>
       <c r="C417">
         <v>0.04219999999999999</v>
       </c>
     </row>
     <row r="418" spans="1:3">
-      <c r="A418">
+      <c r="A418" s="2">
+        <v>45874</v>
+      </c>
+      <c r="B418">
         <v>0.0372</v>
-      </c>
-      <c r="B418">
-        <v>0.0377</v>
       </c>
       <c r="C418">
         <v>0.04219999999999999</v>
       </c>
     </row>
     <row r="419" spans="1:3">
-      <c r="A419">
+      <c r="A419" s="2">
+        <v>45875</v>
+      </c>
+      <c r="B419">
         <v>0.0369</v>
-      </c>
-      <c r="B419">
-        <v>0.0377</v>
       </c>
       <c r="C419">
         <v>0.04219999999999999</v>
       </c>
     </row>
     <row r="420" spans="1:3">
-      <c r="A420">
+      <c r="A420" s="2">
+        <v>45876</v>
+      </c>
+      <c r="B420">
         <v>0.0372</v>
-      </c>
-      <c r="B420">
-        <v>0.0379</v>
       </c>
       <c r="C420">
         <v>0.0423</v>
       </c>
     </row>
     <row r="421" spans="1:3">
-      <c r="A421">
+      <c r="A421" s="2">
+        <v>45877</v>
+      </c>
+      <c r="B421">
         <v>0.03759999999999999</v>
-      </c>
-      <c r="B421">
-        <v>0.0384</v>
       </c>
       <c r="C421">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="422" spans="1:3">
-      <c r="A422">
+      <c r="A422" s="2">
+        <v>45880</v>
+      </c>
+      <c r="B422">
         <v>0.03759999999999999</v>
-      </c>
-      <c r="B422">
-        <v>0.0383</v>
       </c>
       <c r="C422">
         <v>0.04269999999999999</v>
       </c>
     </row>
     <row r="423" spans="1:3">
-      <c r="A423">
+      <c r="A423" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B423">
         <v>0.0372</v>
-      </c>
-      <c r="B423">
-        <v>0.0383</v>
       </c>
       <c r="C423">
         <v>0.0429</v>
       </c>
     </row>
     <row r="424" spans="1:3">
-      <c r="A424">
+      <c r="A424" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B424">
         <v>0.0367</v>
-      </c>
-      <c r="B424">
-        <v>0.0377</v>
       </c>
       <c r="C424">
         <v>0.0424</v>
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425">
+      <c r="A425" s="2">
+        <v>45883</v>
+      </c>
+      <c r="B425">
         <v>0.0374</v>
-      </c>
-      <c r="B425">
-        <v>0.0382</v>
       </c>
       <c r="C425">
         <v>0.0429</v>
       </c>
     </row>
     <row r="426" spans="1:3">
-      <c r="A426">
+      <c r="A426" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B426">
         <v>0.0375</v>
-      </c>
-      <c r="B426">
-        <v>0.0385</v>
       </c>
       <c r="C426">
         <v>0.0433</v>
       </c>
     </row>
     <row r="427" spans="1:3">
-      <c r="A427">
+      <c r="A427" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B427">
         <v>0.0377</v>
-      </c>
-      <c r="B427">
-        <v>0.0386</v>
       </c>
       <c r="C427">
         <v>0.0434</v>
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="A428">
+      <c r="A428" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B428">
         <v>0.0375</v>
-      </c>
-      <c r="B428">
-        <v>0.0382</v>
       </c>
       <c r="C428">
         <v>0.043</v>
       </c>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429">
+      <c r="A429" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B429">
         <v>0.0374</v>
-      </c>
-      <c r="B429">
-        <v>0.0381</v>
       </c>
       <c r="C429">
         <v>0.0429</v>
       </c>
     </row>
     <row r="430" spans="1:3">
-      <c r="A430">
+      <c r="A430" s="2">
+        <v>45890</v>
+      </c>
+      <c r="B430">
         <v>0.0379</v>
-      </c>
-      <c r="B430">
-        <v>0.0386</v>
       </c>
       <c r="C430">
         <v>0.0433</v>
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431">
+      <c r="A431" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B431">
         <v>0.0368</v>
-      </c>
-      <c r="B431">
-        <v>0.03759999999999999</v>
       </c>
       <c r="C431">
         <v>0.0426</v>
       </c>
     </row>
     <row r="432" spans="1:3">
-      <c r="A432">
+      <c r="A432" s="2">
+        <v>45894</v>
+      </c>
+      <c r="B432">
         <v>0.0373</v>
-      </c>
-      <c r="B432">
-        <v>0.038</v>
       </c>
       <c r="C432">
         <v>0.0428</v>
       </c>
     </row>
     <row r="433" spans="1:3">
-      <c r="A433">
+      <c r="A433" s="2">
+        <v>45895</v>
+      </c>
+      <c r="B433">
         <v>0.0361</v>
-      </c>
-      <c r="B433">
-        <v>0.0375</v>
       </c>
       <c r="C433">
         <v>0.0426</v>
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434">
+      <c r="A434" s="2">
+        <v>45896</v>
+      </c>
+      <c r="B434">
         <v>0.0359</v>
-      </c>
-      <c r="B434">
-        <v>0.0369</v>
       </c>
       <c r="C434">
         <v>0.0424</v>
       </c>
     </row>
     <row r="435" spans="1:3">
-      <c r="A435">
+      <c r="A435" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B435">
         <v>0.0362</v>
-      </c>
-      <c r="B435">
-        <v>0.0369</v>
       </c>
       <c r="C435">
         <v>0.04219999999999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B436">
+        <v>0.0359</v>
+      </c>
+      <c r="C436">
+        <v>0.0423</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B438">
+        <v>0.0366</v>
+      </c>
+      <c r="C438">
+        <v>0.0428</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="2">
+        <v>45903</v>
+      </c>
+      <c r="B439">
+        <v>0.0361</v>
+      </c>
+      <c r="C439">
+        <v>0.04219999999999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B440">
+        <v>0.0359</v>
+      </c>
+      <c r="C440">
+        <v>0.0417</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B441">
+        <v>0.0351</v>
+      </c>
+      <c r="C441">
+        <v>0.04099999999999999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B442">
+        <v>0.0349</v>
+      </c>
+      <c r="C442">
+        <v>0.0405</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B443">
+        <v>0.0354</v>
+      </c>
+      <c r="C443">
+        <v>0.0408</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B444">
+        <v>0.0354</v>
+      </c>
+      <c r="C444">
+        <v>0.0404</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B445">
+        <v>0.0352</v>
+      </c>
+      <c r="C445">
+        <v>0.0401</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B446">
+        <v>0.0356</v>
+      </c>
+      <c r="C446">
+        <v>0.0406</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B447">
+        <v>0.0354</v>
+      </c>
+      <c r="C447">
+        <v>0.0405</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B448">
+        <v>0.0351</v>
+      </c>
+      <c r="C448">
+        <v>0.0404</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B449">
+        <v>0.0352</v>
+      </c>
+      <c r="C449">
+        <v>0.0406</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B450">
+        <v>0.0357</v>
+      </c>
+      <c r="C450">
+        <v>0.0411</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B451">
+        <v>0.0357</v>
+      </c>
+      <c r="C451">
+        <v>0.0414</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B452">
+        <v>0.0361</v>
+      </c>
+      <c r="C452">
+        <v>0.0415</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B453">
+        <v>0.0353</v>
+      </c>
+      <c r="C453">
+        <v>0.0412</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B454">
+        <v>0.0357</v>
+      </c>
+      <c r="C454">
+        <v>0.0416</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B455">
+        <v>0.0364</v>
+      </c>
+      <c r="C455">
+        <v>0.0418</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B456">
+        <v>0.0363</v>
+      </c>
+      <c r="C456">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B457">
+        <v>0.0363</v>
+      </c>
+      <c r="C457">
+        <v>0.0415</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B458">
+        <v>0.036</v>
+      </c>
+      <c r="C458">
+        <v>0.0416</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B459">
+        <v>0.0355</v>
+      </c>
+      <c r="C459">
+        <v>0.0412</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B460">
+        <v>0.0355</v>
+      </c>
+      <c r="C460">
+        <v>0.04099999999999999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B461">
+        <v>0.0358</v>
+      </c>
+      <c r="C461">
+        <v>0.0413</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B462">
+        <v>0.036</v>
+      </c>
+      <c r="C462">
+        <v>0.0418</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B463">
+        <v>0.0357</v>
+      </c>
+      <c r="C463">
+        <v>0.0414</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B464">
+        <v>0.0358</v>
+      </c>
+      <c r="C464">
+        <v>0.0413</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B465">
+        <v>0.036</v>
+      </c>
+      <c r="C465">
+        <v>0.0414</v>
       </c>
     </row>
   </sheetData>
